--- a/100runs/run052/NotionalETEOutput052.xlsx
+++ b/100runs/run052/NotionalETEOutput052.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,28 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_245.MISSILE_HIGHWIND_245</t>
+    <t>MISSILE_HELLMASKER_81.MISSILE_HELLMASKER_81</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_301.MISSILE_SOMERSAULT_301</t>
+    <t>MISSILE_BRAVER_0.MISSILE_BRAVER_0</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_37.MISSILE_HIGHWIND_37</t>
+    <t>MISSILE_BRAVER_400.MISSILE_BRAVER_400</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_463.MISSILE_SOMERSAULT_463</t>
+    <t>MISSILE_HELLMASKER</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
-  </si>
-  <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,28 +477,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G2">
-        <v>-137.4580097181215</v>
+        <v>4841119.89336844</v>
       </c>
       <c r="H2">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I2">
-        <v>-1372.162317767869</v>
+        <v>1114859.700396522</v>
       </c>
       <c r="J2">
-        <v>2631.341525914002</v>
+        <v>4843219.507729879</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984361.315687221</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,28 +512,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G3">
-        <v>-137.4580097181215</v>
+        <v>4841119.89336844</v>
       </c>
       <c r="H3">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I3">
-        <v>-1345.072179907324</v>
+        <v>1114889.31434897</v>
       </c>
       <c r="J3">
-        <v>2567.332053701403</v>
+        <v>4843170.856179483</v>
       </c>
       <c r="K3">
-        <v>356.2171313501768</v>
+        <v>3984665.110992557</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,28 +547,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G4">
-        <v>-137.4580097181215</v>
+        <v>4841119.89336844</v>
       </c>
       <c r="H4">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I4">
-        <v>-1317.314972324432</v>
+        <v>1114919.657517753</v>
       </c>
       <c r="J4">
-        <v>2503.322581488804</v>
+        <v>4843122.204629087</v>
       </c>
       <c r="K4">
-        <v>694.6716436905224</v>
+        <v>3984953.757671421</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,28 +582,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G5">
-        <v>-137.4580097181215</v>
+        <v>4841119.89336844</v>
       </c>
       <c r="H5">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I5">
-        <v>-1288.874269040974</v>
+        <v>1114950.747859152</v>
       </c>
       <c r="J5">
-        <v>2439.313109276205</v>
+        <v>4843073.553078691</v>
       </c>
       <c r="K5">
-        <v>1015.363537021039</v>
+        <v>3985227.255723813</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,28 +617,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G6">
-        <v>-137.4580097181215</v>
+        <v>4841119.89336844</v>
       </c>
       <c r="H6">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I6">
-        <v>-1259.733239604129</v>
+        <v>1114982.603771606</v>
       </c>
       <c r="J6">
-        <v>2375.303637063605</v>
+        <v>4843024.901528295</v>
       </c>
       <c r="K6">
-        <v>1318.292811341725</v>
+        <v>3985485.605149734</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,28 +652,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G7">
-        <v>-137.4580097181215</v>
+        <v>4841119.89336844</v>
       </c>
       <c r="H7">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I7">
-        <v>-1229.874639126656</v>
+        <v>1115015.244106596</v>
       </c>
       <c r="J7">
-        <v>2311.294164851006</v>
+        <v>4842976.2499779</v>
       </c>
       <c r="K7">
-        <v>1603.459466652583</v>
+        <v>3985728.805949183</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,28 +687,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G8">
-        <v>-137.4580097181215</v>
+        <v>4841119.89336844</v>
       </c>
       <c r="H8">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I8">
-        <v>-1199.280798081835</v>
+        <v>1115048.688179808</v>
       </c>
       <c r="J8">
-        <v>2247.284692638407</v>
+        <v>4842927.598427503</v>
       </c>
       <c r="K8">
-        <v>1870.863502953611</v>
+        <v>3985956.85812216</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,28 +722,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G9">
-        <v>-137.4580097181215</v>
+        <v>4841119.89336844</v>
       </c>
       <c r="H9">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I9">
-        <v>-1167.933611847102</v>
+        <v>1115082.955782553</v>
       </c>
       <c r="J9">
-        <v>2183.275220425808</v>
+        <v>4842878.946877107</v>
       </c>
       <c r="K9">
-        <v>2120.504920244809</v>
+        <v>3986169.761668665</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,28 +757,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>206.2905300397922</v>
+        <v>1116578.874863444</v>
       </c>
       <c r="G10">
-        <v>-114.759823125238</v>
+        <v>4841136.406171721</v>
       </c>
       <c r="H10">
-        <v>843.1451157254451</v>
+        <v>3985228.017788943</v>
       </c>
       <c r="I10">
-        <v>-1135.814529990222</v>
+        <v>1115118.067193492</v>
       </c>
       <c r="J10">
-        <v>2119.265748213209</v>
+        <v>4842830.295326712</v>
       </c>
       <c r="K10">
-        <v>2352.383718526176</v>
+        <v>3986367.516588699</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,28 +792,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>160.1055164335671</v>
+        <v>1116530.194283499</v>
       </c>
       <c r="G11">
-        <v>-92.06163653235446</v>
+        <v>4841152.918975003</v>
       </c>
       <c r="H11">
-        <v>1038.749109003204</v>
+        <v>3985427.27218019</v>
       </c>
       <c r="I11">
-        <v>-1102.904545291629</v>
+        <v>1115154.043190622</v>
       </c>
       <c r="J11">
-        <v>2055.256276000609</v>
+        <v>4842781.643776316</v>
       </c>
       <c r="K11">
-        <v>2566.499897797713</v>
+        <v>3986550.122882261</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,28 +827,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>132.9741378302965</v>
+        <v>1116501.596884863</v>
       </c>
       <c r="G12">
-        <v>-69.36344993947093</v>
+        <v>4841169.431778285</v>
       </c>
       <c r="H12">
-        <v>1155.26085096743</v>
+        <v>3985545.958285873</v>
       </c>
       <c r="I12">
-        <v>-1069.184182496465</v>
+        <v>1115190.905063585</v>
       </c>
       <c r="J12">
-        <v>1991.24680378801</v>
+        <v>4842732.99222592</v>
       </c>
       <c r="K12">
-        <v>2762.853458059422</v>
+        <v>3986717.580549351</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,28 +862,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>115.8468211972701</v>
+        <v>1116483.544108832</v>
       </c>
       <c r="G13">
-        <v>-46.66526334658738</v>
+        <v>4841185.944581566</v>
       </c>
       <c r="H13">
-        <v>1238.523918221668</v>
+        <v>3985630.775223918</v>
       </c>
       <c r="I13">
-        <v>-1034.633486789634</v>
+        <v>1115228.674626257</v>
       </c>
       <c r="J13">
-        <v>1927.237331575411</v>
+        <v>4842684.340675524</v>
       </c>
       <c r="K13">
-        <v>2941.444399311301</v>
+        <v>3986869.889589969</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,28 +897,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>103.9023001012572</v>
+        <v>1116470.954176109</v>
       </c>
       <c r="G14">
-        <v>-23.96707675370384</v>
+        <v>4841202.457384847</v>
       </c>
       <c r="H14">
-        <v>1303.360824084323</v>
+        <v>3985696.822128132</v>
       </c>
       <c r="I14">
-        <v>-999.2320119870797</v>
+        <v>1115267.374229662</v>
       </c>
       <c r="J14">
-        <v>1863.227859362811</v>
+        <v>4842635.689125128</v>
       </c>
       <c r="K14">
-        <v>3102.27272155335</v>
+        <v>3987007.050004116</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,28 +932,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>94.99132966603707</v>
+        <v>1116461.561709272</v>
       </c>
       <c r="G15">
-        <v>-1.268890160820309</v>
+        <v>4841218.97018813</v>
       </c>
       <c r="H15">
-        <v>1356.467279194676</v>
+        <v>3985750.919665749</v>
       </c>
       <c r="I15">
-        <v>-962.9588084362723</v>
+        <v>1115307.026775198</v>
       </c>
       <c r="J15">
-        <v>1799.218387150212</v>
+        <v>4842587.037574733</v>
       </c>
       <c r="K15">
-        <v>3245.338424785568</v>
+        <v>3987129.061791791</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,28 +967,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.0241951658243</v>
+        <v>1116454.218111824</v>
       </c>
       <c r="G16">
-        <v>21.42929643206324</v>
+        <v>4841235.48299141</v>
       </c>
       <c r="H16">
-        <v>1401.444570089812</v>
+        <v>3985796.736331181</v>
       </c>
       <c r="I16">
-        <v>-925.7924106187617</v>
+        <v>1115347.655728189</v>
       </c>
       <c r="J16">
-        <v>1735.208914937613</v>
+        <v>4842538.386024336</v>
       </c>
       <c r="K16">
-        <v>3370.641509007958</v>
+        <v>3987235.924952995</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,28 +1002,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>82.38727606145503</v>
+        <v>1116448.276606785</v>
       </c>
       <c r="G17">
-        <v>44.12748302494678</v>
+        <v>4841251.995794692</v>
       </c>
       <c r="H17">
-        <v>1440.454178355882</v>
+        <v>3985836.473943985</v>
       </c>
       <c r="I17">
-        <v>-887.7108244474535</v>
+        <v>1115389.285131769</v>
       </c>
       <c r="J17">
-        <v>1671.199442725014</v>
+        <v>4842489.73447394</v>
       </c>
       <c r="K17">
-        <v>3478.181974220517</v>
+        <v>3987327.639487726</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,28 +1037,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>77.70662465803058</v>
+        <v>1116443.343040525</v>
       </c>
       <c r="G18">
-        <v>66.82566961783031</v>
+        <v>4841268.508597975</v>
       </c>
       <c r="H18">
-        <v>1474.895802309808</v>
+        <v>3985871.558323907</v>
       </c>
       <c r="I18">
-        <v>-848.6915142510943</v>
+        <v>1115431.939621113</v>
       </c>
       <c r="J18">
-        <v>1607.189970512414</v>
+        <v>4842441.082923545</v>
       </c>
       <c r="K18">
-        <v>3567.959820423247</v>
+        <v>3987404.205395986</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,28 +1072,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>73.74012476888845</v>
+        <v>1116439.162214324</v>
       </c>
       <c r="G19">
-        <v>89.52385621071387</v>
+        <v>4841285.021401255</v>
       </c>
       <c r="H19">
-        <v>1505.727986397943</v>
+        <v>3985902.965903929</v>
       </c>
       <c r="I19">
-        <v>-808.7113894382564</v>
+        <v>1115475.644438017</v>
       </c>
       <c r="J19">
-        <v>1543.180498299815</v>
+        <v>4842392.431373149</v>
       </c>
       <c r="K19">
-        <v>3639.975047616147</v>
+        <v>3987465.622677774</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,28 +1107,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.32337208757461</v>
+        <v>1116435.560840435</v>
       </c>
       <c r="G20">
-        <v>112.2220428035974</v>
+        <v>4841301.534204537</v>
       </c>
       <c r="H20">
-        <v>1533.636009842834</v>
+        <v>3985931.394752078</v>
       </c>
       <c r="I20">
-        <v>-767.7467908329428</v>
+        <v>1115520.425445829</v>
       </c>
       <c r="J20">
-        <v>1479.171026087216</v>
+        <v>4842343.779822753</v>
       </c>
       <c r="K20">
-        <v>3694.227655799217</v>
+        <v>3987511.891333091</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,28 +1142,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.34037044725059</v>
+        <v>1116432.416654941</v>
       </c>
       <c r="G21">
-        <v>134.9202293964809</v>
+        <v>4841318.047007819</v>
       </c>
       <c r="H21">
-        <v>1559.126802661647</v>
+        <v>3985957.361258796</v>
       </c>
       <c r="I21">
-        <v>-725.7734766737133</v>
+        <v>1115566.30914476</v>
       </c>
       <c r="J21">
-        <v>1415.161553874617</v>
+        <v>4842295.128272356</v>
       </c>
       <c r="K21">
-        <v>3730.717644972457</v>
+        <v>3987543.011361935</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,28 +1177,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>64.70666193607678</v>
+        <v>1116429.640636321</v>
       </c>
       <c r="G22">
-        <v>157.6184159893645</v>
+        <v>4841334.5598111</v>
       </c>
       <c r="H22">
-        <v>1582.58592421083</v>
+        <v>3985981.258178819</v>
       </c>
       <c r="I22">
-        <v>-682.7666082680533</v>
+        <v>1115613.322687566</v>
       </c>
       <c r="J22">
-        <v>1351.152081662018</v>
+        <v>4842246.476721961</v>
       </c>
       <c r="K22">
-        <v>3749.445015135868</v>
+        <v>3987558.982764308</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,28 +1212,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.35911395667517</v>
+        <v>1116427.166240664</v>
       </c>
       <c r="G23">
-        <v>180.316602582248</v>
+        <v>4841351.072614382</v>
       </c>
       <c r="H23">
-        <v>1604.313460996062</v>
+        <v>3986003.391198922</v>
       </c>
       <c r="I23">
-        <v>-638.7007352934975</v>
+        <v>1115661.493895611</v>
       </c>
       <c r="J23">
-        <v>1287.142609449418</v>
+        <v>4842197.825171566</v>
       </c>
       <c r="K23">
-        <v>3750.409766289449</v>
+        <v>3987559.80554021</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,28 +1247,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.2494713512796</v>
+        <v>1116424.942605388</v>
       </c>
       <c r="G24">
-        <v>203.0147891751316</v>
+        <v>4841367.585417664</v>
       </c>
       <c r="H24">
-        <v>1624.547561567202</v>
+        <v>3986024.002912027</v>
       </c>
       <c r="I24">
-        <v>-593.5497807368032</v>
+        <v>1115710.851275338</v>
       </c>
       <c r="J24">
-        <v>1223.133137236819</v>
+        <v>4842149.173621169</v>
       </c>
       <c r="K24">
-        <v>3733.6118984332</v>
+        <v>3987545.479689639</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,28 +1282,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>58.34013839369997</v>
+        <v>1116422.930103314</v>
       </c>
       <c r="G25">
-        <v>225.7129757680151</v>
+        <v>4841384.098220945</v>
       </c>
       <c r="H25">
-        <v>1643.480390116771</v>
+        <v>3986043.289068532</v>
       </c>
       <c r="I25">
-        <v>-547.2870254622665</v>
+        <v>1115761.424035133</v>
       </c>
       <c r="J25">
-        <v>1159.12366502422</v>
+        <v>4842100.522070773</v>
       </c>
       <c r="K25">
-        <v>3699.051411567121</v>
+        <v>3987516.005212596</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,28 +1317,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>56.60133422232433</v>
+        <v>1116421.097344397</v>
       </c>
       <c r="G26">
-        <v>248.4111623608987</v>
+        <v>4841400.611024227</v>
       </c>
       <c r="H26">
-        <v>1661.269252829649</v>
+        <v>3986061.409910297</v>
       </c>
       <c r="I26">
-        <v>-499.8850924000489</v>
+        <v>1115813.242102611</v>
       </c>
       <c r="J26">
-        <v>1095.11419281162</v>
+        <v>4842051.870520378</v>
       </c>
       <c r="K26">
-        <v>3646.728305691212</v>
+        <v>3987471.382109082</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,28 +1352,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.00912325105863</v>
+        <v>1116419.419099716</v>
       </c>
       <c r="G27">
-        <v>271.1093489537822</v>
+        <v>4841417.123827508</v>
       </c>
       <c r="H27">
-        <v>1678.044550168406</v>
+        <v>3986078.498271343</v>
       </c>
       <c r="I27">
-        <v>-451.3159303451531</v>
+        <v>1115866.336142329</v>
       </c>
       <c r="J27">
-        <v>1031.104720599021</v>
+        <v>4842003.218969981</v>
       </c>
       <c r="K27">
-        <v>3576.642580805474</v>
+        <v>3987411.610379097</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,28 +1387,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>53.54401960568281</v>
+        <v>1116417.874830491</v>
       </c>
       <c r="G28">
-        <v>293.8075355466657</v>
+        <v>4841433.636630789</v>
       </c>
       <c r="H28">
-        <v>1693.915583269016</v>
+        <v>3986094.665492604</v>
       </c>
       <c r="I28">
-        <v>-401.5507973574655</v>
+        <v>1115920.737573931</v>
       </c>
       <c r="J28">
-        <v>967.095248386422</v>
+        <v>4841954.567419586</v>
       </c>
       <c r="K28">
-        <v>3488.794236909906</v>
+        <v>3987336.690022639</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,28 +1422,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.18997797360976</v>
+        <v>1116416.447624417</v>
       </c>
       <c r="G29">
-        <v>316.5057221395493</v>
+        <v>4841450.149434072</v>
       </c>
       <c r="H29">
-        <v>1708.974873879385</v>
+        <v>3986110.005822487</v>
       </c>
       <c r="I29">
-        <v>-350.5602437530383</v>
+        <v>1115976.478590736</v>
       </c>
       <c r="J29">
-        <v>903.0857761738226</v>
+        <v>4841905.915869189</v>
       </c>
       <c r="K29">
-        <v>3383.183274004508</v>
+        <v>3987246.62103971</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,28 +1457,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>50.93365056892343</v>
+        <v>1116415.123412473</v>
       </c>
       <c r="G30">
-        <v>339.2039087324328</v>
+        <v>4841466.662237353</v>
       </c>
       <c r="H30">
-        <v>1723.301432329947</v>
+        <v>3986124.599745826</v>
       </c>
       <c r="I30">
-        <v>-298.3140946765513</v>
+        <v>1116033.5921788</v>
       </c>
       <c r="J30">
-        <v>839.0763039612233</v>
+        <v>4841857.264318794</v>
       </c>
       <c r="K30">
-        <v>3259.80969208928</v>
+        <v>3987141.40343031</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,28 +1492,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>49.76383112452241</v>
+        <v>1116413.890382871</v>
       </c>
       <c r="G31">
-        <v>361.9020953253163</v>
+        <v>4841483.175040634</v>
       </c>
       <c r="H31">
-        <v>1736.963266715944</v>
+        <v>3986138.516539896</v>
       </c>
       <c r="I31">
-        <v>-244.7814322446319</v>
+        <v>1116092.112136426</v>
       </c>
       <c r="J31">
-        <v>775.0668317486242</v>
+        <v>4841808.612768398</v>
       </c>
       <c r="K31">
-        <v>3118.673491164224</v>
+        <v>3987021.037194437</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,28 +1527,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>48.6710327422957</v>
+        <v>1116412.738536095</v>
       </c>
       <c r="G32">
-        <v>384.6002819181999</v>
+        <v>4841499.687843917</v>
       </c>
       <c r="H32">
-        <v>1750.019335361364</v>
+        <v>3986151.816263315</v>
       </c>
       <c r="I32">
-        <v>-189.9305772494729</v>
+        <v>1116152.073094171</v>
       </c>
       <c r="J32">
-        <v>711.0573595360248</v>
+        <v>4841759.961218002</v>
       </c>
       <c r="K32">
-        <v>2959.774671229336</v>
+        <v>3986885.522332093</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,28 +1562,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>47.64716313279167</v>
+        <v>1116411.659342597</v>
       </c>
       <c r="G33">
-        <v>407.2984685110834</v>
+        <v>4841516.200647198</v>
       </c>
       <c r="H33">
-        <v>1762.521084512406</v>
+        <v>3986164.551322425</v>
       </c>
       <c r="I33">
-        <v>-133.7290704119191</v>
+        <v>1116213.510535338</v>
       </c>
       <c r="J33">
-        <v>647.0478873234257</v>
+        <v>4841711.309667606</v>
       </c>
       <c r="K33">
-        <v>2783.11323228462</v>
+        <v>3986734.858843276</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,28 +1597,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.6852717732064</v>
+        <v>1116410.645476289</v>
       </c>
       <c r="G34">
-        <v>429.996655103967</v>
+        <v>4841532.713450479</v>
       </c>
       <c r="H34">
-        <v>1774.513672699026</v>
+        <v>3986176.767718514</v>
       </c>
       <c r="I34">
-        <v>-76.14365317292858</v>
+        <v>1116276.460816972</v>
       </c>
       <c r="J34">
-        <v>583.0384151108263</v>
+        <v>4841662.65811721</v>
       </c>
       <c r="K34">
-        <v>2588.689174330073</v>
+        <v>3986569.046727988</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,28 +1632,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>45.77935089837296</v>
+        <v>1116409.690604781</v>
       </c>
       <c r="G35">
-        <v>452.6948416968505</v>
+        <v>4841549.22625376</v>
       </c>
       <c r="H35">
-        <v>1786.036955390064</v>
+        <v>3986188.506050842</v>
       </c>
       <c r="I35">
-        <v>-17.14024801204067</v>
+        <v>1116340.961191379</v>
       </c>
       <c r="J35">
-        <v>519.028942898227</v>
+        <v>4841614.006566814</v>
       </c>
       <c r="K35">
-        <v>2376.502497365696</v>
+        <v>3986388.085986229</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,28 +1667,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>44.92417728941555</v>
+        <v>1116408.789222623</v>
       </c>
       <c r="G36">
-        <v>475.3930282897341</v>
+        <v>4841565.739057043</v>
       </c>
       <c r="H36">
-        <v>1797.126284142182</v>
+        <v>3986199.802330703</v>
       </c>
       <c r="I36">
-        <v>43.31606171879687</v>
+        <v>1116407.049828165</v>
       </c>
       <c r="J36">
-        <v>455.0194706856279</v>
+        <v>4841565.355016418</v>
       </c>
       <c r="K36">
-        <v>2146.553201391491</v>
+        <v>3986191.976617998</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,28 +1702,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.11518533458618</v>
+        <v>1116407.936517504</v>
       </c>
       <c r="G37">
-        <v>498.0912148826176</v>
+        <v>4841582.251860324</v>
       </c>
       <c r="H37">
-        <v>1807.813160662801</v>
+        <v>3986210.688647693</v>
       </c>
       <c r="I37">
-        <v>105.2610524579711</v>
+        <v>1116474.765836832</v>
       </c>
       <c r="J37">
-        <v>391.0099984730286</v>
+        <v>4841516.703466022</v>
       </c>
       <c r="K37">
-        <v>1898.841286407455</v>
+        <v>3985980.718623295</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,28 +1737,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.34836431308733</v>
+        <v>1116407.128261987</v>
       </c>
       <c r="G38">
-        <v>520.7894014755011</v>
+        <v>4841598.764663605</v>
       </c>
       <c r="H38">
-        <v>1818.125776291203</v>
+        <v>3986221.193719266</v>
       </c>
       <c r="I38">
-        <v>168.7313816057515</v>
+        <v>1116544.149289915</v>
       </c>
       <c r="J38">
-        <v>327.0005262604295</v>
+        <v>4841468.051915627</v>
       </c>
       <c r="K38">
-        <v>1633.36675241359</v>
+        <v>3985754.31200212</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,28 +1772,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.6201746240844</v>
+        <v>1116406.360725213</v>
       </c>
       <c r="G39">
-        <v>543.4875880683848</v>
+        <v>4841615.277466888</v>
       </c>
       <c r="H39">
-        <v>1828.089460172197</v>
+        <v>3986231.343347261</v>
       </c>
       <c r="I39">
-        <v>233.7646092171632</v>
+        <v>1116615.241246699</v>
       </c>
       <c r="J39">
-        <v>262.9910540478302</v>
+        <v>4841419.400365231</v>
       </c>
       <c r="K39">
-        <v>1350.129599409894</v>
+        <v>3985512.756754474</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,28 +1807,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>41.92747896653181</v>
+        <v>1116405.630600358</v>
       </c>
       <c r="G40">
-        <v>566.1857746612682</v>
+        <v>4841631.790270169</v>
       </c>
       <c r="H40">
-        <v>1837.727054061375</v>
+        <v>3986241.160799714</v>
       </c>
       <c r="I40">
-        <v>300.3992202290343</v>
+        <v>1116688.083777515</v>
       </c>
       <c r="J40">
-        <v>198.9815818352308</v>
+        <v>4841370.748814834</v>
       </c>
       <c r="K40">
-        <v>1049.129827396368</v>
+        <v>3985256.052880356</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,28 +1842,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.26748541635962</v>
+        <v>1116404.934944641</v>
       </c>
       <c r="G41">
-        <v>588.8839612541518</v>
+        <v>4841648.30307345</v>
       </c>
       <c r="H41">
-        <v>1847.059227719133</v>
+        <v>3986250.667132125</v>
       </c>
       <c r="I41">
-        <v>368.6746472343535</v>
+        <v>1116762.719988638</v>
       </c>
       <c r="J41">
-        <v>134.9721096226317</v>
+        <v>4841322.097264439</v>
       </c>
       <c r="K41">
-        <v>730.367436373014</v>
+        <v>3984984.200379766</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,28 +1877,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.63770004501558</v>
+        <v>1116404.271129374</v>
       </c>
       <c r="G42">
-        <v>611.5821478470352</v>
+        <v>4841664.815876732</v>
       </c>
       <c r="H42">
-        <v>1856.104745847956</v>
+        <v>3986259.88145939</v>
       </c>
       <c r="I42">
-        <v>438.6312938174391</v>
+        <v>1116839.194047796</v>
       </c>
       <c r="J42">
-        <v>70.96263741003236</v>
+        <v>4841273.445714043</v>
       </c>
       <c r="K42">
-        <v>393.8424263398288</v>
+        <v>3984697.199252704</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,28 +1912,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.03588724563343</v>
+        <v>1116403.636798153</v>
       </c>
       <c r="G43">
-        <v>634.2803344399189</v>
+        <v>4841681.328680014</v>
       </c>
       <c r="H43">
-        <v>1864.880695241077</v>
+        <v>3986268.821187177</v>
       </c>
       <c r="I43">
-        <v>510.3105584636979</v>
+        <v>1116917.551210306</v>
       </c>
       <c r="J43">
-        <v>6.953165197432996</v>
+        <v>4841224.794163647</v>
       </c>
       <c r="K43">
-        <v>39.55479729681402</v>
+        <v>3984395.049499171</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,28 +1947,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.46003632796461</v>
+        <v>1116403.02983164</v>
       </c>
       <c r="G44">
-        <v>656.9785210328024</v>
+        <v>4841697.841483295</v>
       </c>
       <c r="H44">
-        <v>1873.402679053849</v>
+        <v>3986277.502209831</v>
       </c>
       <c r="I44">
-        <v>583.7548590581558</v>
+        <v>1116997.837845856</v>
       </c>
       <c r="J44">
-        <v>-57.05630701516607</v>
+        <v>4841176.142613251</v>
       </c>
       <c r="K44">
-        <v>-332.4954507560294</v>
+        <v>3984077.751119166</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,28 +1982,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>38.90833324442003</v>
+        <v>1116402.448317769</v>
       </c>
       <c r="G45">
-        <v>679.6767076256858</v>
+        <v>4841714.354286577</v>
       </c>
       <c r="H45">
-        <v>1881.684983747904</v>
+        <v>3986285.939080429</v>
       </c>
       <c r="I45">
-        <v>659.0076579872351</v>
+        <v>1117080.101465944</v>
       </c>
       <c r="J45">
-        <v>-121.0657792277654</v>
+        <v>4841127.491062855</v>
       </c>
       <c r="K45">
-        <v>-722.3083178187037</v>
+        <v>3983745.30411269</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,28 +2017,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.37913654126933</v>
+        <v>1116401.89052639</v>
       </c>
       <c r="G46">
-        <v>702.3748942185695</v>
+        <v>4841730.867089858</v>
       </c>
       <c r="H46">
-        <v>1889.740723194933</v>
+        <v>3986294.145157579</v>
       </c>
       <c r="I46">
-        <v>736.1134878586379</v>
+        <v>1117164.390751995</v>
       </c>
       <c r="J46">
-        <v>-185.0752514403648</v>
+        <v>4841078.839512459</v>
       </c>
       <c r="K46">
-        <v>-1129.883803891209</v>
+        <v>3983397.708479741</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,28 +2052,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>37.87095680869491</v>
+        <v>1116401.354887616</v>
       </c>
       <c r="G47">
-        <v>725.073080811453</v>
+        <v>4841747.37989314</v>
       </c>
       <c r="H47">
-        <v>1897.581963590307</v>
+        <v>3986302.132732656</v>
       </c>
       <c r="I47">
-        <v>815.1179778545611</v>
+        <v>1117250.755584171</v>
       </c>
       <c r="J47">
-        <v>-249.0847236529642</v>
+        <v>4841030.187962064</v>
       </c>
       <c r="K47">
-        <v>-1555.221908973543</v>
+        <v>3983034.964220321</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,28 +2087,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.38243904371512</v>
+        <v>1116400.839973225</v>
       </c>
       <c r="G48">
-        <v>747.7712674043365</v>
+        <v>4841763.892696422</v>
       </c>
       <c r="H48">
-        <v>1905.219832163795</v>
+        <v>3986309.913140547</v>
       </c>
       <c r="I48">
-        <v>896.0678807338354</v>
+        <v>1117339.247070884</v>
       </c>
       <c r="J48">
-        <v>-313.0941958655629</v>
+        <v>4840981.536411667</v>
       </c>
       <c r="K48">
-        <v>-1998.322633065703</v>
+        <v>3982657.071334429</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,28 +2122,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>36.91234745036716</v>
+        <v>1116400.344480649</v>
       </c>
       <c r="G49">
-        <v>770.4694539972202</v>
+        <v>4841780.405499702</v>
       </c>
       <c r="H49">
-        <v>1912.664612145792</v>
+        <v>3986317.496856393</v>
       </c>
       <c r="I49">
-        <v>979.0111004989677</v>
+        <v>1117429.917579048</v>
       </c>
       <c r="J49">
-        <v>-377.1036680781623</v>
+        <v>4840932.884861272</v>
       </c>
       <c r="K49">
-        <v>-2459.185976167696</v>
+        <v>3982264.029822065</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,28 +2157,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.45955228893182</v>
+        <v>1116399.867219102</v>
       </c>
       <c r="G50">
-        <v>793.1676405901036</v>
+        <v>4841796.918302985</v>
       </c>
       <c r="H50">
-        <v>1919.925826023034</v>
+        <v>3986324.89358039</v>
       </c>
       <c r="I50">
-        <v>1063.996720744453</v>
+        <v>1117522.820765059</v>
       </c>
       <c r="J50">
-        <v>-441.1131402907617</v>
+        <v>4840884.233310875</v>
       </c>
       <c r="K50">
-        <v>-2937.81193827952</v>
+        <v>3981855.83968323</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,28 +2192,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.02301845561481</v>
+        <v>1116399.407097549</v>
       </c>
       <c r="G51">
-        <v>815.8658271829871</v>
+        <v>4841813.431106267</v>
       </c>
       <c r="H51">
-        <v>1927.012308775019</v>
+        <v>3986332.112312396</v>
       </c>
       <c r="I51">
-        <v>1151.075033703146</v>
+        <v>1117618.011606557</v>
       </c>
       <c r="J51">
-        <v>-505.122612503361</v>
+        <v>4840835.58176048</v>
       </c>
       <c r="K51">
-        <v>-3434.200519401174</v>
+        <v>3981432.500917922</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,28 +2227,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.60179552991094</v>
+        <v>1116398.963114215</v>
       </c>
       <c r="G52">
-        <v>838.5640137758708</v>
+        <v>4841829.943909547</v>
       </c>
       <c r="H52">
-        <v>1933.932272504129</v>
+        <v>3986339.16141777</v>
       </c>
       <c r="I52">
-        <v>1240.297570007869</v>
+        <v>1117715.546434952</v>
       </c>
       <c r="J52">
-        <v>-569.1320847159604</v>
+        <v>4840786.930210084</v>
       </c>
       <c r="K52">
-        <v>-3948.351719532656</v>
+        <v>3980994.013526144</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,28 +2262,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.19500907185857</v>
+        <v>1116398.534347411</v>
       </c>
       <c r="G53">
-        <v>861.2622003687542</v>
+        <v>4841846.45671283</v>
       </c>
       <c r="H53">
-        <v>1940.693363645228</v>
+        <v>3986346.048685647</v>
       </c>
       <c r="I53">
-        <v>1331.717129185865</v>
+        <v>1117815.482968767</v>
       </c>
       <c r="J53">
-        <v>-633.1415569285591</v>
+        <v>4840738.278659688</v>
       </c>
       <c r="K53">
-        <v>-4480.265538673965</v>
+        <v>3980540.377507893</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,28 +2297,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>34.80185298784724</v>
+        <v>1116398.119947486</v>
       </c>
       <c r="G54">
-        <v>883.9603869616377</v>
+        <v>4841862.969516112</v>
       </c>
       <c r="H54">
-        <v>1947.302713754255</v>
+        <v>3986352.781380672</v>
       </c>
       <c r="I54">
-        <v>1425.387810904169</v>
+        <v>1117917.880347786</v>
       </c>
       <c r="J54">
-        <v>-697.1510291411586</v>
+        <v>4840689.627109292</v>
       </c>
       <c r="K54">
-        <v>-5029.941976825108</v>
+        <v>3980071.592863171</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,28 +2332,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G55">
-        <v>-106.660889886349</v>
+        <v>4841121.354118431</v>
       </c>
       <c r="H55">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I55">
-        <v>-1815.81383669398</v>
+        <v>1114862.241919556</v>
       </c>
       <c r="J55">
-        <v>1919.745846832806</v>
+        <v>4843225.604542133</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984365.72871661</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,28 +2367,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G56">
-        <v>-106.660889886349</v>
+        <v>4841121.354118431</v>
       </c>
       <c r="H56">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I56">
-        <v>-1779.964836522378</v>
+        <v>1114891.855939515</v>
       </c>
       <c r="J56">
-        <v>1873.046504604543</v>
+        <v>4843176.952930493</v>
       </c>
       <c r="K56">
-        <v>258.1740563260915</v>
+        <v>3984669.524358426</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,28 +2402,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G57">
-        <v>-106.660889886349</v>
+        <v>4841121.354118431</v>
       </c>
       <c r="H57">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I57">
-        <v>-1743.233087702026</v>
+        <v>1114922.199177471</v>
       </c>
       <c r="J57">
-        <v>1826.34716237628</v>
+        <v>4843128.301318852</v>
       </c>
       <c r="K57">
-        <v>503.4743707763747</v>
+        <v>3984958.171356991</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,28 +2437,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G58">
-        <v>-106.660889886349</v>
+        <v>4841121.354118431</v>
       </c>
       <c r="H58">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I58">
-        <v>-1705.596853359561</v>
+        <v>1114953.289589746</v>
       </c>
       <c r="J58">
-        <v>1779.647820148018</v>
+        <v>4843079.649707212</v>
       </c>
       <c r="K58">
-        <v>735.9009433508514</v>
+        <v>3985231.669712307</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,28 +2472,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G59">
-        <v>-106.660889886349</v>
+        <v>4841121.354118431</v>
       </c>
       <c r="H59">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I59">
-        <v>-1667.033861371115</v>
+        <v>1114985.14557482</v>
       </c>
       <c r="J59">
-        <v>1732.948477919755</v>
+        <v>4843030.998095573</v>
       </c>
       <c r="K59">
-        <v>955.4537740495202</v>
+        <v>3985490.019424372</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,28 +2507,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G60">
-        <v>-106.660889886349</v>
+        <v>4841121.354118431</v>
       </c>
       <c r="H60">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I60">
-        <v>-1627.521291182254</v>
+        <v>1115017.785984221</v>
       </c>
       <c r="J60">
-        <v>1686.249135691492</v>
+        <v>4842982.346483933</v>
       </c>
       <c r="K60">
-        <v>1162.132862872383</v>
+        <v>3985733.220493187</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,28 +2542,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G61">
-        <v>-106.660889886349</v>
+        <v>4841121.354118431</v>
       </c>
       <c r="H61">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I61">
-        <v>-1587.035760303391</v>
+        <v>1115051.230133674</v>
       </c>
       <c r="J61">
-        <v>1639.549793463229</v>
+        <v>4842933.694872292</v>
       </c>
       <c r="K61">
-        <v>1355.938209819438</v>
+        <v>3985961.272918752</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,28 +2577,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G62">
-        <v>-106.660889886349</v>
+        <v>4841121.354118431</v>
       </c>
       <c r="H62">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I62">
-        <v>-1545.553310472642</v>
+        <v>1115085.497814539</v>
       </c>
       <c r="J62">
-        <v>1592.850451234966</v>
+        <v>4842885.043260652</v>
       </c>
       <c r="K62">
-        <v>1536.869814890686</v>
+        <v>3986174.176701067</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,28 +2612,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>187.8955989684866</v>
+        <v>1116578.280487243</v>
       </c>
       <c r="G63">
-        <v>-89.04817465958267</v>
+        <v>4841137.866926696</v>
       </c>
       <c r="H63">
-        <v>961.6644189980067</v>
+        <v>3985223.430291884</v>
       </c>
       <c r="I63">
-        <v>-1503.049393477965</v>
+        <v>1115120.60930552</v>
       </c>
       <c r="J63">
-        <v>1546.151109006704</v>
+        <v>4842836.391649012</v>
       </c>
       <c r="K63">
-        <v>1704.927678086126</v>
+        <v>3986371.931840131</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,28 +2647,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>145.8289040347181</v>
+        <v>1116529.599933212</v>
       </c>
       <c r="G64">
-        <v>-71.43545943281632</v>
+        <v>4841154.379734959</v>
       </c>
       <c r="H64">
-        <v>1184.764093111993</v>
+        <v>3985422.684453764</v>
       </c>
       <c r="I64">
-        <v>-1459.49885663018</v>
+        <v>1115156.585384664</v>
       </c>
       <c r="J64">
-        <v>1499.451766778441</v>
+        <v>4842787.740037372</v>
       </c>
       <c r="K64">
-        <v>1860.111799405759</v>
+        <v>3986554.538335946</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,28 +2682,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>121.1168310543492</v>
+        <v>1116501.002549798</v>
       </c>
       <c r="G65">
-        <v>-53.82274420605</v>
+        <v>4841170.892543224</v>
       </c>
       <c r="H65">
-        <v>1317.653668764779</v>
+        <v>3985541.370422824</v>
       </c>
       <c r="I65">
-        <v>-1414.875927878277</v>
+        <v>1115193.44734166</v>
       </c>
       <c r="J65">
-        <v>1452.752424550178</v>
+        <v>4842739.088425731</v>
       </c>
       <c r="K65">
-        <v>2002.422178849585</v>
+        <v>3986721.99618851</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,28 +2717,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>105.516757619739</v>
+        <v>1116482.949783378</v>
       </c>
       <c r="G66">
-        <v>-36.21002897928365</v>
+        <v>4841187.405351488</v>
       </c>
       <c r="H66">
-        <v>1412.620866820768</v>
+        <v>3985626.187263234</v>
       </c>
       <c r="I66">
-        <v>-1369.154200558201</v>
+        <v>1115231.216990434</v>
       </c>
       <c r="J66">
-        <v>1406.053082321915</v>
+        <v>4842690.436814091</v>
       </c>
       <c r="K66">
-        <v>2131.858816417604</v>
+        <v>3986874.305397824</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,28 +2752,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>94.63732973085749</v>
+        <v>1116470.359857356</v>
       </c>
       <c r="G67">
-        <v>-18.59731375251731</v>
+        <v>4841203.918159752</v>
       </c>
       <c r="H67">
-        <v>1486.571773068255</v>
+        <v>3985692.23409142</v>
       </c>
       <c r="I67">
-        <v>-1322.306617766085</v>
+        <v>1115269.916682062</v>
       </c>
       <c r="J67">
-        <v>1359.353740093652</v>
+        <v>4842641.785202452</v>
       </c>
       <c r="K67">
-        <v>2248.421712109816</v>
+        <v>3987011.465963888</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,28 +2787,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>86.52095072405965</v>
+        <v>1116460.967395519</v>
       </c>
       <c r="G68">
-        <v>-0.9845985257509819</v>
+        <v>4841220.430968016</v>
       </c>
       <c r="H68">
-        <v>1547.143301440094</v>
+        <v>3985746.331566763</v>
       </c>
       <c r="I68">
-        <v>-1274.3054563467</v>
+        <v>1115309.569317994</v>
       </c>
       <c r="J68">
-        <v>1312.654397865389</v>
+        <v>4842593.133590812</v>
       </c>
       <c r="K68">
-        <v>2352.11086592622</v>
+        <v>3987133.477886702</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,28 +2822,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>80.17507575946979</v>
+        <v>1116453.623801981</v>
       </c>
       <c r="G69">
-        <v>16.62811670101536</v>
+        <v>4841236.94377628</v>
       </c>
       <c r="H69">
-        <v>1598.442964463771</v>
+        <v>3985792.148179455</v>
       </c>
       <c r="I69">
-        <v>-1225.122310487621</v>
+        <v>1115350.198363605</v>
       </c>
       <c r="J69">
-        <v>1265.955055637126</v>
+        <v>4842544.481979171</v>
       </c>
       <c r="K69">
-        <v>2442.926277866817</v>
+        <v>3987240.341166266</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,28 +2857,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>75.04080085480953</v>
+        <v>1116447.682300104</v>
       </c>
       <c r="G70">
-        <v>34.24083192778171</v>
+        <v>4841253.456584544</v>
       </c>
       <c r="H70">
-        <v>1642.936079075783</v>
+        <v>3985831.885746516</v>
       </c>
       <c r="I70">
-        <v>-1174.728074909427</v>
+        <v>1115391.827862087</v>
       </c>
       <c r="J70">
-        <v>1219.255713408864</v>
+        <v>4842495.830367531</v>
       </c>
       <c r="K70">
-        <v>2520.867947931607</v>
+        <v>3987332.055802579</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,28 +2892,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>70.77752323930542</v>
+        <v>1116442.74873647</v>
       </c>
       <c r="G71">
-        <v>51.85354715454803</v>
+        <v>4841269.969392809</v>
       </c>
       <c r="H71">
-        <v>1682.219096519943</v>
+        <v>3985866.970086052</v>
       </c>
       <c r="I71">
-        <v>-1123.092927641967</v>
+        <v>1115434.48244867</v>
       </c>
       <c r="J71">
-        <v>1172.556371180601</v>
+        <v>4842447.178755891</v>
       </c>
       <c r="K71">
-        <v>2585.935876120589</v>
+        <v>3987408.621795642</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,28 +2927,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>67.16471623195015</v>
+        <v>1116438.567912495</v>
       </c>
       <c r="G72">
-        <v>69.46626238131439</v>
+        <v>4841286.482201072</v>
       </c>
       <c r="H72">
-        <v>1717.38530201002</v>
+        <v>3985898.377629919</v>
       </c>
       <c r="I72">
-        <v>-1070.186312376509</v>
+        <v>1115478.187365206</v>
       </c>
       <c r="J72">
-        <v>1125.857028952338</v>
+        <v>4842398.527144251</v>
       </c>
       <c r="K72">
-        <v>2638.130062433765</v>
+        <v>3987470.039145455</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,28 +2962,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>64.05263546188857</v>
+        <v>1116434.966540523</v>
       </c>
       <c r="G73">
-        <v>87.07897760808072</v>
+        <v>4841302.995009337</v>
       </c>
       <c r="H73">
-        <v>1749.216303163863</v>
+        <v>3985926.806445343</v>
       </c>
       <c r="I73">
-        <v>-1015.976920383333</v>
+        <v>1115522.968475105</v>
       </c>
       <c r="J73">
-        <v>1079.157686724075</v>
+        <v>4842349.87553261</v>
       </c>
       <c r="K73">
-        <v>2677.450506871133</v>
+        <v>3987516.307852019</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,28 +2997,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>61.33562814301386</v>
+        <v>1116431.822356703</v>
       </c>
       <c r="G74">
-        <v>104.691692834847</v>
+        <v>4841319.507817601</v>
       </c>
       <c r="H74">
-        <v>1778.290288185777</v>
+        <v>3985952.772922171</v>
       </c>
       <c r="I74">
-        <v>-960.4326719840515</v>
+        <v>1115568.852278637</v>
       </c>
       <c r="J74">
-        <v>1032.458344495812</v>
+        <v>4842301.22392097</v>
       </c>
       <c r="K74">
-        <v>2703.897209432694</v>
+        <v>3987547.427915331</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,28 +3032,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>58.93676747733063</v>
+        <v>1116429.046339561</v>
       </c>
       <c r="G75">
-        <v>122.3044080616134</v>
+        <v>4841336.020625865</v>
       </c>
       <c r="H75">
-        <v>1805.047013776707</v>
+        <v>3985976.669814685</v>
       </c>
       <c r="I75">
-        <v>-903.5206975677088</v>
+        <v>1115615.865928618</v>
       </c>
       <c r="J75">
-        <v>985.7590022675497</v>
+        <v>4842252.57230933</v>
       </c>
       <c r="K75">
-        <v>2717.470170118448</v>
+        <v>3987563.399335394</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,28 +3067,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>56.79855040254856</v>
+        <v>1116426.571945221</v>
       </c>
       <c r="G76">
-        <v>139.9171232883797</v>
+        <v>4841352.533434129</v>
       </c>
       <c r="H76">
-        <v>1829.828749030965</v>
+        <v>3985998.80280931</v>
       </c>
       <c r="I76">
-        <v>-845.2073181394201</v>
+        <v>1115664.037246478</v>
       </c>
       <c r="J76">
-        <v>939.0596600392868</v>
+        <v>4842203.920697691</v>
       </c>
       <c r="K76">
-        <v>2718.169388928394</v>
+        <v>3987564.222112207</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,28 +3102,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>54.87702467437394</v>
+        <v>1116424.348311128</v>
       </c>
       <c r="G77">
-        <v>157.5298385151461</v>
+        <v>4841369.046242394</v>
       </c>
       <c r="H77">
-        <v>1852.907118586543</v>
+        <v>3986019.414498689</v>
       </c>
       <c r="I77">
-        <v>-785.4580253900355</v>
+        <v>1115713.394738724</v>
       </c>
       <c r="J77">
-        <v>892.3603178110238</v>
+        <v>4842155.26908605</v>
       </c>
       <c r="K77">
-        <v>2705.994865862534</v>
+        <v>3987549.896245768</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,28 +3137,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>53.13794697834255</v>
+        <v>1116422.335810125</v>
       </c>
       <c r="G78">
-        <v>175.1425537419124</v>
+        <v>4841385.559050657</v>
       </c>
       <c r="H78">
-        <v>1874.501298790558</v>
+        <v>3986038.700632993</v>
       </c>
       <c r="I78">
-        <v>-724.2374612750381</v>
+        <v>1115763.967613808</v>
       </c>
       <c r="J78">
-        <v>845.6609755827611</v>
+        <v>4842106.61747441</v>
       </c>
       <c r="K78">
-        <v>2680.946600920866</v>
+        <v>3987520.421736081</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,28 +3172,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>51.5541920129231</v>
+        <v>1116420.503052185</v>
       </c>
       <c r="G79">
-        <v>192.7552689686788</v>
+        <v>4841402.071858922</v>
       </c>
       <c r="H79">
-        <v>1894.790708058732</v>
+        <v>3986056.821453898</v>
       </c>
       <c r="I79">
-        <v>-661.5093970905955</v>
+        <v>1115815.785799416</v>
       </c>
       <c r="J79">
-        <v>798.9616333544982</v>
+        <v>4842057.96586277</v>
       </c>
       <c r="K79">
-        <v>2643.02459410339</v>
+        <v>3987475.798583143</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,28 +3207,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>50.10395852875659</v>
+        <v>1116418.824808396</v>
       </c>
       <c r="G80">
-        <v>210.3679841954451</v>
+        <v>4841418.584667185</v>
       </c>
       <c r="H80">
-        <v>1913.924076998329</v>
+        <v>3986073.909795274</v>
       </c>
       <c r="I80">
-        <v>-597.2367120343719</v>
+        <v>1115868.879960171</v>
       </c>
       <c r="J80">
-        <v>752.2622911262354</v>
+        <v>4842009.31425113</v>
       </c>
       <c r="K80">
-        <v>2592.228845410108</v>
+        <v>3987416.026786955</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,28 +3242,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>48.76949820745294</v>
+        <v>1116417.280539994</v>
       </c>
       <c r="G81">
-        <v>227.9806994222114</v>
+        <v>4841435.09747545</v>
       </c>
       <c r="H81">
-        <v>1932.02607099786</v>
+        <v>3986090.076997925</v>
       </c>
       <c r="I81">
-        <v>-531.3813712384251</v>
+        <v>1115923.28151579</v>
       </c>
       <c r="J81">
-        <v>705.5629488979727</v>
+        <v>4841960.662639489</v>
       </c>
       <c r="K81">
-        <v>2528.559354841019</v>
+        <v>3987341.106347516</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,28 +3277,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>47.53619649729902</v>
+        <v>1116415.85333468</v>
       </c>
       <c r="G82">
-        <v>245.5934146489778</v>
+        <v>4841451.610283714</v>
       </c>
       <c r="H82">
-        <v>1949.202217411141</v>
+        <v>3986105.417310148</v>
       </c>
       <c r="I82">
-        <v>-463.9044032611801</v>
+        <v>1115979.022659667</v>
       </c>
       <c r="J82">
-        <v>658.8636066697097</v>
+        <v>4841912.011027849</v>
       </c>
       <c r="K82">
-        <v>2452.016122396122</v>
+        <v>3987251.037264829</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,28 +3312,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>46.3918958347406</v>
+        <v>1116414.529123441</v>
       </c>
       <c r="G83">
-        <v>263.2061298757441</v>
+        <v>4841468.123091978</v>
       </c>
       <c r="H83">
-        <v>1965.542632900291</v>
+        <v>3986120.011216688</v>
       </c>
       <c r="I83">
-        <v>-394.7658770251678</v>
+        <v>1116036.136377932</v>
       </c>
       <c r="J83">
-        <v>612.1642644414468</v>
+        <v>4841863.359416209</v>
       </c>
       <c r="K83">
-        <v>2362.599148075417</v>
+        <v>3987145.81953889</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,28 +3347,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>45.32638921575857</v>
+        <v>1116413.296094494</v>
       </c>
       <c r="G84">
-        <v>280.8188451025105</v>
+        <v>4841484.635900242</v>
       </c>
       <c r="H84">
-        <v>1981.124885328987</v>
+        <v>3986133.927994739</v>
       </c>
       <c r="I84">
-        <v>-323.9248781868716</v>
+        <v>1116094.656468965</v>
       </c>
       <c r="J84">
-        <v>565.4649222131841</v>
+        <v>4841814.707804568</v>
       </c>
       <c r="K84">
-        <v>2260.308431878907</v>
+        <v>3987025.453169701</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,28 +3382,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>44.33103568915377</v>
+        <v>1116412.144248331</v>
       </c>
       <c r="G85">
-        <v>298.4315603292768</v>
+        <v>4841501.148708506</v>
       </c>
       <c r="H85">
-        <v>1996.016220680546</v>
+        <v>3986147.227702847</v>
       </c>
       <c r="I85">
-        <v>-251.3394849247065</v>
+        <v>1116154.617563402</v>
       </c>
       <c r="J85">
-        <v>518.7655799849211</v>
+        <v>4841766.056192929</v>
       </c>
       <c r="K85">
-        <v>2145.143973806588</v>
+        <v>3986889.938157262</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,28 +3417,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>43.39846455510179</v>
+        <v>1116411.065055408</v>
       </c>
       <c r="G86">
-        <v>316.0442755560431</v>
+        <v>4841517.66151677</v>
       </c>
       <c r="H86">
-        <v>2010.27531690202</v>
+        <v>3986159.962747298</v>
       </c>
       <c r="I86">
-        <v>-176.9667431307974</v>
+        <v>1116216.055144626</v>
       </c>
       <c r="J86">
-        <v>472.0662377566585</v>
+        <v>4841717.404581289</v>
       </c>
       <c r="K86">
-        <v>2017.105773858462</v>
+        <v>3986739.274501573</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,28 +3452,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>42.52234506906905</v>
+        <v>1116410.05118964</v>
       </c>
       <c r="G87">
-        <v>333.6569907828094</v>
+        <v>4841534.174325035</v>
       </c>
       <c r="H87">
-        <v>2023.953680371925</v>
+        <v>3986172.179129325</v>
       </c>
       <c r="I87">
-        <v>-100.762640991881</v>
+        <v>1116279.005569767</v>
       </c>
       <c r="J87">
-        <v>425.3668955283956</v>
+        <v>4841668.752969649</v>
       </c>
       <c r="K87">
-        <v>1876.19383203453</v>
+        <v>3986573.462202633</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,28 +3487,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>41.69720517843979</v>
+        <v>1116409.096318641</v>
       </c>
       <c r="G88">
-        <v>351.2697060095758</v>
+        <v>4841550.687133298</v>
       </c>
       <c r="H88">
-        <v>2037.096768966458</v>
+        <v>3986183.91744814</v>
       </c>
       <c r="I88">
-        <v>-22.68208294428264</v>
+        <v>1116343.506091213</v>
       </c>
       <c r="J88">
-        <v>378.6675533001327</v>
+        <v>4841620.101358008</v>
       </c>
       <c r="K88">
-        <v>1722.408148334789</v>
+        <v>3986392.501260444</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,28 +3522,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>40.91828741887952</v>
+        <v>1116408.194936962</v>
       </c>
       <c r="G89">
-        <v>368.8824212363422</v>
+        <v>4841567.199941562</v>
       </c>
       <c r="H89">
-        <v>2049.744903543278</v>
+        <v>3986195.213714997</v>
       </c>
       <c r="I89">
-        <v>57.32113701244182</v>
+        <v>1116409.594878661</v>
       </c>
       <c r="J89">
-        <v>331.96821107187</v>
+        <v>4841571.449746368</v>
       </c>
       <c r="K89">
-        <v>1555.748722759242</v>
+        <v>3986196.391675005</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,28 +3557,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>40.18143329433958</v>
+        <v>1116407.342232297</v>
       </c>
       <c r="G90">
-        <v>386.4951364631085</v>
+        <v>4841583.712749827</v>
       </c>
       <c r="H90">
-        <v>2061.934013944827</v>
+        <v>3986206.100019456</v>
       </c>
       <c r="I90">
-        <v>139.2943626589877</v>
+        <v>1116477.311041699</v>
       </c>
       <c r="J90">
-        <v>285.2688688436071</v>
+        <v>4841522.798134728</v>
       </c>
       <c r="K90">
-        <v>1376.215555307887</v>
+        <v>3985985.133446315</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,28 +3592,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>39.48298972008361</v>
+        <v>1116406.533977211</v>
       </c>
       <c r="G91">
-        <v>404.1078516898748</v>
+        <v>4841600.225558091</v>
       </c>
       <c r="H91">
-        <v>2073.696254313264</v>
+        <v>3986216.605078936</v>
       </c>
       <c r="I91">
-        <v>223.2861035730958</v>
+        <v>1116546.694652954</v>
       </c>
       <c r="J91">
-        <v>238.5695266153444</v>
+        <v>4841474.146523088</v>
       </c>
       <c r="K91">
-        <v>1183.808645980726</v>
+        <v>3985758.726574375</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,28 +3627,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>38.81973272156075</v>
+        <v>1116405.766440845</v>
       </c>
       <c r="G92">
-        <v>421.7205669166412</v>
+        <v>4841616.738366355</v>
       </c>
       <c r="H92">
-        <v>2085.06051426305</v>
+        <v>3986226.754695248</v>
       </c>
       <c r="I92">
-        <v>309.3460638362281</v>
+        <v>1116617.786771804</v>
       </c>
       <c r="J92">
-        <v>191.8701843870815</v>
+        <v>4841425.494911447</v>
       </c>
       <c r="K92">
-        <v>978.5279947777565</v>
+        <v>3985517.171059185</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,28 +3662,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>38.18880475092822</v>
+        <v>1116405.036316379</v>
       </c>
       <c r="G93">
-        <v>439.3332821434075</v>
+        <v>4841633.251174619</v>
       </c>
       <c r="H93">
-        <v>2096.05284637186</v>
+        <v>3986236.572136399</v>
       </c>
       <c r="I93">
-        <v>397.5251714471292</v>
+        <v>1116690.629468678</v>
       </c>
       <c r="J93">
-        <v>145.1708421588186</v>
+        <v>4841376.843299808</v>
       </c>
       <c r="K93">
-        <v>760.3736016989801</v>
+        <v>3985260.466900745</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,28 +3697,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>37.58766284004642</v>
+        <v>1116404.340661032</v>
       </c>
       <c r="G94">
-        <v>456.9459973701738</v>
+        <v>4841649.763982883</v>
       </c>
       <c r="H94">
-        <v>2106.696825908948</v>
+        <v>3986246.078457868</v>
       </c>
       <c r="I94">
-        <v>487.8756084596558</v>
+        <v>1116765.265849948</v>
       </c>
       <c r="J94">
-        <v>98.47149993055588</v>
+        <v>4841328.191688168</v>
       </c>
       <c r="K94">
-        <v>529.3454667443971</v>
+        <v>3984988.614099055</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,28 +3732,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>37.01403544402658</v>
+        <v>1116403.676846118</v>
       </c>
       <c r="G95">
-        <v>474.5587125969402</v>
+        <v>4841666.276791148</v>
       </c>
       <c r="H95">
-        <v>2117.013855295289</v>
+        <v>3986255.292774525</v>
       </c>
       <c r="I95">
-        <v>580.45084186274</v>
+        <v>1116841.740083442</v>
       </c>
       <c r="J95">
-        <v>51.77215770229297</v>
+        <v>4841279.540076528</v>
       </c>
       <c r="K95">
-        <v>285.443589914006</v>
+        <v>3984701.612654114</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,28 +3767,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>36.46588630511555</v>
+        <v>1116403.042515235</v>
       </c>
       <c r="G96">
-        <v>492.1714278237066</v>
+        <v>4841682.789599412</v>
       </c>
       <c r="H96">
-        <v>2127.023423182105</v>
+        <v>3986264.232492022</v>
       </c>
       <c r="I96">
-        <v>675.3056552207213</v>
+        <v>1116920.097424582</v>
       </c>
       <c r="J96">
-        <v>5.072815474030052</v>
+        <v>4841230.888464887</v>
       </c>
       <c r="K96">
-        <v>28.6679712078079</v>
+        <v>3984399.462565924</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,28 +3802,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>35.94138402635819</v>
+        <v>1116402.435549045</v>
       </c>
       <c r="G97">
-        <v>509.7841430504728</v>
+        <v>4841699.302407675</v>
       </c>
       <c r="H97">
-        <v>2136.743326030583</v>
+        <v>3986272.913504682</v>
       </c>
       <c r="I97">
-        <v>772.4961810928139</v>
+        <v>1117000.384243159</v>
       </c>
       <c r="J97">
-        <v>-41.62652675423264</v>
+        <v>4841182.236853247</v>
       </c>
       <c r="K97">
-        <v>-240.9813893741967</v>
+        <v>3984082.163834482</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,28 +3837,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>35.43887631882855</v>
+        <v>1116401.854035483</v>
       </c>
       <c r="G98">
-        <v>527.3968582772392</v>
+        <v>4841715.81521594</v>
       </c>
       <c r="H98">
-        <v>2146.189858523059</v>
+        <v>3986281.350365569</v>
       </c>
       <c r="I98">
-        <v>872.0799342508631</v>
+        <v>1117082.648050782</v>
       </c>
       <c r="J98">
-        <v>-88.32586898249555</v>
+        <v>4841133.585241607</v>
       </c>
       <c r="K98">
-        <v>-523.5044918320092</v>
+        <v>3983749.716459792</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,28 +3872,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>34.95686809726129</v>
+        <v>1116401.296244401</v>
       </c>
       <c r="G99">
-        <v>545.0095735040055</v>
+        <v>4841732.328024204</v>
       </c>
       <c r="H99">
-        <v>2155.377977923195</v>
+        <v>3986289.556433273</v>
       </c>
       <c r="I99">
-        <v>974.1158457150568</v>
+        <v>1117166.937528986</v>
       </c>
       <c r="J99">
-        <v>-135.0252112107585</v>
+        <v>4841084.933629966</v>
       </c>
       <c r="K99">
-        <v>-818.9013361656297</v>
+        <v>3983402.12044185</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,28 +3907,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>34.49400276254477</v>
+        <v>1116400.760605912</v>
       </c>
       <c r="G100">
-        <v>562.6222887307719</v>
+        <v>4841748.840832468</v>
       </c>
       <c r="H100">
-        <v>2164.321446548466</v>
+        <v>3986297.543999155</v>
       </c>
       <c r="I100">
-        <v>1078.664297627739</v>
+        <v>1117253.302558045</v>
       </c>
       <c r="J100">
-        <v>-181.7245534390214</v>
+        <v>4841036.282018326</v>
       </c>
       <c r="K100">
-        <v>-1127.171922375057</v>
+        <v>3983039.375780659</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,28 +3942,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>34.04904613734284</v>
+        <v>1116400.245691796</v>
       </c>
       <c r="G101">
-        <v>580.2350039575382</v>
+        <v>4841765.353640732</v>
       </c>
       <c r="H101">
-        <v>2173.03295576214</v>
+        <v>3986305.324398091</v>
       </c>
       <c r="I101">
-        <v>1185.787158985958</v>
+        <v>1117341.794246491</v>
       </c>
       <c r="J101">
-        <v>-228.4238956672839</v>
+        <v>4840987.630406686</v>
       </c>
       <c r="K101">
-        <v>-1448.316250460289</v>
+        <v>3982661.482476218</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,28 +3977,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>33.62087262164569</v>
+        <v>1116399.750199483</v>
       </c>
       <c r="G102">
-        <v>597.8477191843045</v>
+        <v>4841781.866448996</v>
       </c>
       <c r="H102">
-        <v>2181.524234288727</v>
+        <v>3986312.908105206</v>
       </c>
       <c r="I102">
-        <v>1295.547822253899</v>
+        <v>1117432.464961354</v>
       </c>
       <c r="J102">
-        <v>-275.1232378955468</v>
+        <v>4840938.978795047</v>
       </c>
       <c r="K102">
-        <v>-1782.33432042133</v>
+        <v>3982268.440528526</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,28 +4012,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>33.20845321464957</v>
+        <v>1116399.27293819</v>
       </c>
       <c r="G103">
-        <v>615.4604344110709</v>
+        <v>4841798.379257261</v>
       </c>
       <c r="H103">
-        <v>2189.806143172785</v>
+        <v>3986320.304820688</v>
       </c>
       <c r="I103">
-        <v>1408.011240876854</v>
+        <v>1117525.368359155</v>
       </c>
       <c r="J103">
-        <v>-321.8225801238096</v>
+        <v>4840890.327183406</v>
       </c>
       <c r="K103">
-        <v>-2129.226132258179</v>
+        <v>3981860.249937584</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,28 +4047,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>32.81084511278814</v>
+        <v>1116398.812816882</v>
       </c>
       <c r="G104">
-        <v>633.0731496378372</v>
+        <v>4841814.892065525</v>
       </c>
       <c r="H104">
-        <v>2197.888759310061</v>
+        <v>3986327.523544385</v>
       </c>
       <c r="I104">
-        <v>1523.243967718951</v>
+        <v>1117620.559417658</v>
       </c>
       <c r="J104">
-        <v>-368.5219223520726</v>
+        <v>4840841.675571766</v>
       </c>
       <c r="K104">
-        <v>-2488.991685970836</v>
+        <v>3981436.910703393</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,28 +4082,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>32.42718264457343</v>
+        <v>1116398.368833785</v>
       </c>
       <c r="G105">
-        <v>650.6858648646036</v>
+        <v>4841831.404873788</v>
       </c>
       <c r="H105">
-        <v>2205.781449162526</v>
+        <v>3986334.572641645</v>
       </c>
       <c r="I105">
-        <v>1641.314194447371</v>
+        <v>1117718.094468401</v>
       </c>
       <c r="J105">
-        <v>-415.2212645803355</v>
+        <v>4840793.023960126</v>
       </c>
       <c r="K105">
-        <v>-2861.630981559299</v>
+        <v>3980998.42282595</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,28 +4117,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>32.0566693438743</v>
+        <v>1116397.940067209</v>
       </c>
       <c r="G106">
-        <v>668.2985800913699</v>
+        <v>4841847.917682053</v>
       </c>
       <c r="H106">
-        <v>2213.492934009832</v>
+        <v>3986341.459901594</v>
       </c>
       <c r="I106">
-        <v>1762.291791886359</v>
+        <v>1117818.031230039</v>
       </c>
       <c r="J106">
-        <v>-461.920606808598</v>
+        <v>4840744.372348486</v>
       </c>
       <c r="K106">
-        <v>-3247.144019023567</v>
+        <v>3980544.786305258</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,28 +4152,28 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>31.69857099646512</v>
+        <v>1116397.525667504</v>
       </c>
       <c r="G107">
-        <v>685.9112953181362</v>
+        <v>4841864.430490317</v>
       </c>
       <c r="H107">
-        <v>2221.031347877158</v>
+        <v>3986348.192588869</v>
       </c>
       <c r="I107">
-        <v>1886.248351364935</v>
+        <v>1117920.428842492</v>
       </c>
       <c r="J107">
-        <v>-508.6199490368609</v>
+        <v>4840695.720736845</v>
       </c>
       <c r="K107">
-        <v>-3645.530798363644</v>
+        <v>3980076.001141316</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4184,7 +4181,7 @@
         <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
@@ -4196,22 +4193,22 @@
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G108">
-        <v>-126.6095042567652</v>
+        <v>4841127.629295054</v>
       </c>
       <c r="H108">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I108">
-        <v>-1642.201451689433</v>
+        <v>1114859.841508608</v>
       </c>
       <c r="J108">
-        <v>1685.596195762819</v>
+        <v>4843214.422587221</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984364.584538633</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4219,7 +4216,7 @@
         <v>52</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
         <v>15</v>
@@ -4231,22 +4228,22 @@
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G109">
-        <v>-126.6095042567652</v>
+        <v>4841127.629295054</v>
       </c>
       <c r="H109">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I109">
-        <v>-1609.780022281997</v>
+        <v>1114889.455464805</v>
       </c>
       <c r="J109">
-        <v>1644.592729739203</v>
+        <v>4843165.771087906</v>
       </c>
       <c r="K109">
-        <v>242.8213764733064</v>
+        <v>3984668.380093208</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4254,7 +4251,7 @@
         <v>52</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
         <v>15</v>
@@ -4266,22 +4263,22 @@
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G110">
-        <v>-126.6095042567652</v>
+        <v>4841127.629295054</v>
       </c>
       <c r="H110">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I110">
-        <v>-1576.560245002571</v>
+        <v>1114919.798637429</v>
       </c>
       <c r="J110">
-        <v>1603.589263715588</v>
+        <v>4843117.119588592</v>
       </c>
       <c r="K110">
-        <v>473.5345660624224</v>
+        <v>3984957.027008884</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4289,7 +4286,7 @@
         <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
         <v>15</v>
@@ -4301,22 +4298,22 @@
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G111">
-        <v>-126.6095042567652</v>
+        <v>4841127.629295054</v>
       </c>
       <c r="H111">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I111">
-        <v>-1542.522461269273</v>
+        <v>1114950.888982763</v>
       </c>
       <c r="J111">
-        <v>1562.585797691973</v>
+        <v>4843068.468089278</v>
       </c>
       <c r="K111">
-        <v>692.1395687673497</v>
+        <v>3985230.525285659</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4324,7 +4321,7 @@
         <v>52</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
         <v>15</v>
@@ -4336,22 +4333,22 @@
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G112">
-        <v>-126.6095042567652</v>
+        <v>4841127.629295054</v>
       </c>
       <c r="H112">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I112">
-        <v>-1507.646528425731</v>
+        <v>1114982.744899248</v>
       </c>
       <c r="J112">
-        <v>1521.582331668357</v>
+        <v>4843019.816589964</v>
       </c>
       <c r="K112">
-        <v>898.636384588087</v>
+        <v>3985488.874923535</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4359,7 +4356,7 @@
         <v>52</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>15</v>
@@ -4371,22 +4368,22 @@
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G113">
-        <v>-126.6095042567652</v>
+        <v>4841127.629295054</v>
       </c>
       <c r="H113">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I113">
-        <v>-1471.911807821185</v>
+        <v>1115015.38523837</v>
       </c>
       <c r="J113">
-        <v>1480.578865644742</v>
+        <v>4842971.16509065</v>
       </c>
       <c r="K113">
-        <v>1093.025013524636</v>
+        <v>3985732.075922511</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4394,7 +4391,7 @@
         <v>52</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
@@ -4406,22 +4403,22 @@
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G114">
-        <v>-126.6095042567652</v>
+        <v>4841127.629295054</v>
       </c>
       <c r="H114">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I114">
-        <v>-1435.297152597093</v>
+        <v>1115048.829315815</v>
       </c>
       <c r="J114">
-        <v>1439.575399621126</v>
+        <v>4842922.513591335</v>
       </c>
       <c r="K114">
-        <v>1275.305455576995</v>
+        <v>3985960.128282587</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4429,7 +4426,7 @@
         <v>52</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
@@ -4441,22 +4438,22 @@
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G115">
-        <v>-126.6095042567652</v>
+        <v>4841127.629295054</v>
       </c>
       <c r="H115">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I115">
-        <v>-1397.780895172973</v>
+        <v>1115083.096922898</v>
       </c>
       <c r="J115">
-        <v>1398.571933597511</v>
+        <v>4842873.862092021</v>
       </c>
       <c r="K115">
-        <v>1445.477710745165</v>
+        <v>3986173.032003763</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4464,7 +4461,7 @@
         <v>52</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
         <v>15</v>
@@ -4476,22 +4473,22 @@
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>304.1802345697259</v>
+        <v>1116578.085295198</v>
       </c>
       <c r="G116">
-        <v>-105.7027112808905</v>
+        <v>4841144.142124723</v>
       </c>
       <c r="H116">
-        <v>592.8541713073928</v>
+        <v>3985228.661188276</v>
       </c>
       <c r="I116">
-        <v>-1359.340834424108</v>
+        <v>1115118.20833828</v>
       </c>
       <c r="J116">
-        <v>1357.568467573896</v>
+        <v>4842825.210592708</v>
       </c>
       <c r="K116">
-        <v>1603.541779029145</v>
+        <v>3986370.787086038</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4499,7 +4496,7 @@
         <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -4511,22 +4508,22 @@
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>236.079346615065</v>
+        <v>1116529.404749676</v>
       </c>
       <c r="G117">
-        <v>-84.7959183050158</v>
+        <v>4841160.654954391</v>
       </c>
       <c r="H117">
-        <v>730.3923497018985</v>
+        <v>3985427.915611692</v>
       </c>
       <c r="I117">
-        <v>-1319.954222543509</v>
+        <v>1115154.184339965</v>
       </c>
       <c r="J117">
-        <v>1316.56500155028</v>
+        <v>4842776.559093393</v>
       </c>
       <c r="K117">
-        <v>1749.497660428935</v>
+        <v>3986553.393529414</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4534,7 +4531,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
@@ -4546,22 +4543,22 @@
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>196.0734912510258</v>
+        <v>1116500.807371262</v>
       </c>
       <c r="G118">
-        <v>-63.88912532914112</v>
+        <v>4841177.167784059</v>
       </c>
       <c r="H118">
-        <v>812.317122723148</v>
+        <v>3985546.601736536</v>
       </c>
       <c r="I118">
-        <v>-1279.59775158037</v>
+        <v>1115191.046217593</v>
       </c>
       <c r="J118">
-        <v>1275.561535526665</v>
+        <v>4842727.907594078</v>
       </c>
       <c r="K118">
-        <v>1883.345354944536</v>
+        <v>3986720.85133389</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4569,7 +4566,7 @@
         <v>52</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
@@ -4581,22 +4578,22 @@
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>170.8188603671989</v>
+        <v>1116482.754607997</v>
       </c>
       <c r="G119">
-        <v>-42.98233235326641</v>
+        <v>4841193.680613728</v>
       </c>
       <c r="H119">
-        <v>870.8632209177051</v>
+        <v>3985631.418688274</v>
       </c>
       <c r="I119">
-        <v>-1238.247539647034</v>
+        <v>1115228.815785046</v>
       </c>
       <c r="J119">
-        <v>1234.558069503049</v>
+        <v>4842679.256094765</v>
       </c>
       <c r="K119">
-        <v>2005.084862575949</v>
+        <v>3986873.160499466</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4604,7 +4601,7 @@
         <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
         <v>15</v>
@@ -4616,22 +4613,22 @@
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>153.2063833033832</v>
+        <v>1116470.164684177</v>
       </c>
       <c r="G120">
-        <v>-22.07553937739171</v>
+        <v>4841210.193443396</v>
       </c>
       <c r="H120">
-        <v>916.4530362157117</v>
+        <v>3985697.465603151</v>
       </c>
       <c r="I120">
-        <v>-1195.879116786339</v>
+        <v>1115267.515393349</v>
       </c>
       <c r="J120">
-        <v>1193.554603479434</v>
+        <v>4842630.604595451</v>
       </c>
       <c r="K120">
-        <v>2114.716183323172</v>
+        <v>3987010.321026142</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4639,7 +4636,7 @@
         <v>52</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
@@ -4651,22 +4648,22 @@
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>140.0669479802672</v>
+        <v>1116460.772223982</v>
       </c>
       <c r="G121">
-        <v>-1.168746401517022</v>
+        <v>4841226.706273064</v>
       </c>
       <c r="H121">
-        <v>953.7946312131903</v>
+        <v>3985751.563149502</v>
       </c>
       <c r="I121">
-        <v>-1152.467410490933</v>
+        <v>1115307.167943905</v>
       </c>
       <c r="J121">
-        <v>1152.551137455818</v>
+        <v>4842581.953096137</v>
       </c>
       <c r="K121">
-        <v>2212.239317186205</v>
+        <v>3987132.332913918</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4674,7 +4671,7 @@
         <v>52</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
@@ -4686,22 +4683,22 @@
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>129.7937444253354</v>
+        <v>1116453.428631727</v>
       </c>
       <c r="G122">
-        <v>19.73804657435768</v>
+        <v>4841243.219102732</v>
       </c>
       <c r="H122">
-        <v>985.4202363717334</v>
+        <v>3985797.379822331</v>
       </c>
       <c r="I122">
-        <v>-1107.98673086604</v>
+        <v>1115347.796902038</v>
       </c>
       <c r="J122">
-        <v>1111.547671432203</v>
+        <v>4842533.301596822</v>
       </c>
       <c r="K122">
-        <v>2297.654264165048</v>
+        <v>3987239.196162794</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4709,7 +4706,7 @@
         <v>52</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -4721,22 +4718,22 @@
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>121.4819747329173</v>
+        <v>1116447.487130889</v>
       </c>
       <c r="G123">
-        <v>40.64483955023238</v>
+        <v>4841259.731932401</v>
       </c>
       <c r="H123">
-        <v>1012.849688965678</v>
+        <v>3985837.117441551</v>
       </c>
       <c r="I123">
-        <v>-1062.410755426859</v>
+        <v>1115389.426310887</v>
       </c>
       <c r="J123">
-        <v>1070.544205408588</v>
+        <v>4842484.650097508</v>
       </c>
       <c r="K123">
-        <v>2370.961024259702</v>
+        <v>3987330.91077277</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4744,7 +4741,7 @@
         <v>52</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
@@ -4756,22 +4753,22 @@
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>114.5802442387539</v>
+        <v>1116442.553568117</v>
       </c>
       <c r="G124">
-        <v>61.55163252610707</v>
+        <v>4841276.24476207</v>
       </c>
       <c r="H124">
-        <v>1037.06718136035</v>
+        <v>3985872.201827137</v>
       </c>
       <c r="I124">
-        <v>-1015.712513521617</v>
+        <v>1115432.08080563</v>
       </c>
       <c r="J124">
-        <v>1029.540739384972</v>
+        <v>4842435.998598195</v>
       </c>
       <c r="K124">
-        <v>2432.159597470168</v>
+        <v>3987407.476743846</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4779,7 +4776,7 @@
         <v>52</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
         <v>15</v>
@@ -4791,22 +4788,22 @@
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>108.7315469356479</v>
+        <v>1116438.372744873</v>
       </c>
       <c r="G125">
-        <v>82.45842550198179</v>
+        <v>4841292.757591737</v>
       </c>
       <c r="H125">
-        <v>1058.746710312423</v>
+        <v>3985903.609412229</v>
       </c>
       <c r="I125">
-        <v>-967.8643703710525</v>
+        <v>1115475.785628066</v>
       </c>
       <c r="J125">
-        <v>988.5372733613566</v>
+        <v>4842387.34709888</v>
       </c>
       <c r="K125">
-        <v>2481.249983796443</v>
+        <v>3987468.894076022</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4814,7 +4811,7 @@
         <v>52</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
@@ -4826,22 +4823,22 @@
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>103.6934648100733</v>
+        <v>1116434.771373531</v>
       </c>
       <c r="G126">
-        <v>103.3652184778565</v>
+        <v>4841309.270421406</v>
       </c>
       <c r="H126">
-        <v>1078.370127211437</v>
+        <v>3985932.038264968</v>
       </c>
       <c r="I126">
-        <v>-918.8380107148901</v>
+        <v>1115520.566641546</v>
       </c>
       <c r="J126">
-        <v>947.5338073377413</v>
+        <v>4842338.695599565</v>
       </c>
       <c r="K126">
-        <v>2518.23218323853</v>
+        <v>3987515.162769299</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4849,7 +4846,7 @@
         <v>52</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
@@ -4861,22 +4858,22 @@
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>99.29495878800526</v>
+        <v>1116431.62719026</v>
       </c>
       <c r="G127">
-        <v>124.2720114537312</v>
+        <v>4841325.783251075</v>
       </c>
       <c r="H127">
-        <v>1096.293877904772</v>
+        <v>3985958.004775879</v>
       </c>
       <c r="I127">
-        <v>-868.6044220556189</v>
+        <v>1115566.450346285</v>
       </c>
       <c r="J127">
-        <v>906.5303413141258</v>
+        <v>4842290.044100252</v>
       </c>
       <c r="K127">
-        <v>2543.106195796426</v>
+        <v>3987546.282823675</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,7 +4881,7 @@
         <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
@@ -4896,22 +4893,22 @@
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>95.411493693594</v>
+        <v>1116428.851173603</v>
       </c>
       <c r="G128">
-        <v>145.1788044296059</v>
+        <v>4841342.296080743</v>
       </c>
       <c r="H128">
-        <v>1112.789066937177</v>
+        <v>3985981.901699759</v>
       </c>
       <c r="I128">
-        <v>-817.1338774896669</v>
+        <v>1115613.463895041</v>
       </c>
       <c r="J128">
-        <v>865.5268752905105</v>
+        <v>4842241.392600938</v>
       </c>
       <c r="K128">
-        <v>2555.872021470134</v>
+        <v>3987562.254239151</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4919,7 +4916,7 @@
         <v>52</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
@@ -4931,22 +4928,22 @@
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>91.94997902832881</v>
+        <v>1116426.376779696</v>
       </c>
       <c r="G129">
-        <v>166.0855974054806</v>
+        <v>4841358.808910412</v>
       </c>
       <c r="H129">
-        <v>1128.066698954622</v>
+        <v>3986004.034723436</v>
       </c>
       <c r="I129">
-        <v>-764.3959181158111</v>
+        <v>1115661.635109184</v>
       </c>
       <c r="J129">
-        <v>824.523409266895</v>
+        <v>4842192.741101624</v>
       </c>
       <c r="K129">
-        <v>2556.529660259652</v>
+        <v>3987563.077015727</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4954,7 +4951,7 @@
         <v>52</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
@@ -4966,22 +4963,22 @@
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>88.83926142804086</v>
+        <v>1116424.153145992</v>
       </c>
       <c r="G130">
-        <v>186.9923903813553</v>
+        <v>4841375.321740081</v>
       </c>
       <c r="H130">
-        <v>1142.294227173098</v>
+        <v>3986024.646439868</v>
       </c>
       <c r="I130">
-        <v>-710.3593350104073</v>
+        <v>1115710.992495158</v>
       </c>
       <c r="J130">
-        <v>783.5199432432795</v>
+        <v>4842144.089602309</v>
       </c>
       <c r="K130">
-        <v>2545.07911216498</v>
+        <v>3987548.751153403</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4989,7 +4986,7 @@
         <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
@@ -5001,22 +4998,22 @@
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>86.02390511092707</v>
+        <v>1116422.140645341</v>
       </c>
       <c r="G131">
-        <v>207.89918335723</v>
+        <v>4841391.834569748</v>
       </c>
       <c r="H131">
-        <v>1155.606771088628</v>
+        <v>3986043.932599487</v>
       </c>
       <c r="I131">
-        <v>-654.9921507587774</v>
+        <v>1115761.565261354</v>
       </c>
       <c r="J131">
-        <v>742.5164772196642</v>
+        <v>4842095.438102995</v>
       </c>
       <c r="K131">
-        <v>2521.52037718612</v>
+        <v>3987519.276652179</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5024,7 +5021,7 @@
         <v>52</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
@@ -5036,22 +5033,22 @@
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>83.4599974966617</v>
+        <v>1116420.307887721</v>
       </c>
       <c r="G132">
-        <v>228.8059763331047</v>
+        <v>4841408.347399417</v>
       </c>
       <c r="H132">
-        <v>1168.11493992629</v>
+        <v>3986062.053444177</v>
       </c>
       <c r="I132">
-        <v>-598.2616005318267</v>
+        <v>1115813.383335391</v>
       </c>
       <c r="J132">
-        <v>701.5130111960488</v>
+        <v>4842046.786603681</v>
       </c>
       <c r="K132">
-        <v>2485.853455323069</v>
+        <v>3987474.653512056</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5059,7 +5056,7 @@
         <v>52</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
@@ -5071,22 +5068,22 @@
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>81.11224500103978</v>
+        <v>1116418.629644226</v>
       </c>
       <c r="G133">
-        <v>249.7127693089793</v>
+        <v>4841424.860229085</v>
       </c>
       <c r="H133">
-        <v>1179.910424258363</v>
+        <v>3986079.141807982</v>
       </c>
       <c r="I133">
-        <v>-540.1341126966869</v>
+        <v>1115866.47738183</v>
       </c>
       <c r="J133">
-        <v>660.5095451724333</v>
+        <v>4841998.135104367</v>
       </c>
       <c r="K133">
-        <v>2438.07834657583</v>
+        <v>3987414.881733032</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5094,7 +5091,7 @@
         <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
@@ -5106,22 +5103,22 @@
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>78.95191524458701</v>
+        <v>1116417.085376093</v>
       </c>
       <c r="G134">
-        <v>270.6195622848541</v>
+        <v>4841441.373058754</v>
       </c>
       <c r="H134">
-        <v>1191.070078748633</v>
+        <v>3986095.309031854</v>
       </c>
       <c r="I134">
-        <v>-480.5752889499151</v>
+        <v>1115920.878820317</v>
       </c>
       <c r="J134">
-        <v>619.5060791488179</v>
+        <v>4841949.483605052</v>
       </c>
       <c r="K134">
-        <v>2378.195050944401</v>
+        <v>3987339.961315108</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5129,7 +5126,7 @@
         <v>52</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
@@ -5141,22 +5138,22 @@
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>76.9553490368134</v>
+        <v>1116415.658171029</v>
       </c>
       <c r="G135">
-        <v>291.5263552607288</v>
+        <v>4841457.885888423</v>
       </c>
       <c r="H135">
-        <v>1201.658959700171</v>
+        <v>3986110.649364213</v>
       </c>
       <c r="I135">
-        <v>-419.5498839614916</v>
+        <v>1115976.619844178</v>
       </c>
       <c r="J135">
-        <v>578.5026131252024</v>
+        <v>4841900.832105738</v>
       </c>
       <c r="K135">
-        <v>2306.203568428783</v>
+        <v>3987249.892258286</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5164,7 +5161,7 @@
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
@@ -5176,22 +5173,22 @@
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>75.10286475369993</v>
+        <v>1116414.333960021</v>
       </c>
       <c r="G136">
-        <v>312.4331482366034</v>
+        <v>4841474.39871809</v>
       </c>
       <c r="H136">
-        <v>1211.732622916007</v>
+        <v>3986125.243289908</v>
       </c>
       <c r="I136">
-        <v>-357.0217845175714</v>
+        <v>1116033.73343947</v>
       </c>
       <c r="J136">
-        <v>537.4991471015869</v>
+        <v>4841852.180606425</v>
       </c>
       <c r="K136">
-        <v>2222.103899028974</v>
+        <v>3987144.674562562</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5199,7 +5196,7 @@
         <v>52</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
         <v>15</v>
@@ -5211,22 +5208,22 @@
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>73.37793849104749</v>
+        <v>1116413.10093129</v>
       </c>
       <c r="G137">
-        <v>333.3399412124782</v>
+        <v>4841490.911547759</v>
       </c>
       <c r="H137">
-        <v>1221.338888020775</v>
+        <v>3986139.160086226</v>
       </c>
       <c r="I137">
-        <v>-292.9539881496416</v>
+        <v>1116092.253404504</v>
       </c>
       <c r="J137">
-        <v>496.4956810779716</v>
+        <v>4841803.52910711</v>
       </c>
       <c r="K137">
-        <v>2125.896042744978</v>
+        <v>3987024.308227938</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5234,7 +5231,7 @@
         <v>52</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
@@ -5246,22 +5243,22 @@
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>71.76658159464019</v>
+        <v>1116411.949085329</v>
       </c>
       <c r="G138">
-        <v>354.2467341883529</v>
+        <v>4841507.424377427</v>
       </c>
       <c r="H138">
-        <v>1230.519211328054</v>
+        <v>3986152.459811791</v>
       </c>
       <c r="I138">
-        <v>-227.3085812374434</v>
+        <v>1116152.214369839</v>
       </c>
       <c r="J138">
-        <v>455.4922150543561</v>
+        <v>4841754.877607795</v>
       </c>
       <c r="K138">
-        <v>2017.579999576791</v>
+        <v>3986888.793254415</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5269,7 +5266,7 @@
         <v>52</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
@@ -5281,22 +5278,22 @@
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>70.25686179350498</v>
+        <v>1116410.869892594</v>
       </c>
       <c r="G139">
-        <v>375.1535271642275</v>
+        <v>4841523.937207095</v>
       </c>
       <c r="H139">
-        <v>1239.309767063477</v>
+        <v>3986165.194872957</v>
       </c>
       <c r="I139">
-        <v>-160.046716572699</v>
+        <v>1116213.651818782</v>
       </c>
       <c r="J139">
-        <v>414.4887490307408</v>
+        <v>4841706.226108482</v>
       </c>
       <c r="K139">
-        <v>1897.155769524415</v>
+        <v>3986738.129641991</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5304,7 +5301,7 @@
         <v>52</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C140" t="s">
         <v>15</v>
@@ -5316,22 +5313,22 @@
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>68.83853037842354</v>
+        <v>1116409.856027003</v>
       </c>
       <c r="G140">
-        <v>396.0603201401022</v>
+        <v>4841540.450036764</v>
       </c>
       <c r="H140">
-        <v>1247.742308269734</v>
+        <v>3986177.411271019</v>
       </c>
       <c r="I140">
-        <v>-91.1285903703659</v>
+        <v>1116276.602108384</v>
       </c>
       <c r="J140">
-        <v>373.4852830071253</v>
+        <v>4841657.574609168</v>
       </c>
       <c r="K140">
-        <v>1764.62335258785</v>
+        <v>3986572.317390668</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5339,7 +5336,7 @@
         <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
@@ -5351,22 +5348,22 @@
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>67.50272875846895</v>
+        <v>1116408.901156171</v>
       </c>
       <c r="G141">
-        <v>416.967113115977</v>
+        <v>4841556.962866432</v>
       </c>
       <c r="H141">
-        <v>1255.844859162955</v>
+        <v>3986189.149605242</v>
       </c>
       <c r="I141">
-        <v>-20.51341871381422</v>
+        <v>1116341.102490954</v>
       </c>
       <c r="J141">
-        <v>332.4818169835098</v>
+        <v>4841608.923109853</v>
       </c>
       <c r="K141">
-        <v>1619.982748767095</v>
+        <v>3986391.356500444</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5374,7 +5371,7 @@
         <v>52</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
@@ -5386,22 +5383,22 @@
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>66.24175517465815</v>
+        <v>1116407.99977465</v>
       </c>
       <c r="G142">
-        <v>437.8739060918517</v>
+        <v>4841573.475696101</v>
       </c>
       <c r="H142">
-        <v>1263.642277051139</v>
+        <v>3986200.445886926</v>
       </c>
       <c r="I142">
-        <v>51.84058658001355</v>
+        <v>1116407.191136106</v>
       </c>
       <c r="J142">
-        <v>291.4783509598945</v>
+        <v>4841560.271610539</v>
       </c>
       <c r="K142">
-        <v>1463.233958062151</v>
+        <v>3986195.246971321</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5409,7 +5406,7 @@
         <v>52</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
@@ -5421,22 +5418,22 @@
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>65.04887752517249</v>
+        <v>1116407.147070134</v>
       </c>
       <c r="G143">
-        <v>458.7806990677263</v>
+        <v>4841589.98852577</v>
       </c>
       <c r="H143">
-        <v>1271.156712235935</v>
+        <v>3986211.332205674</v>
       </c>
       <c r="I143">
-        <v>125.9762426897374</v>
+        <v>1116474.907153344</v>
       </c>
       <c r="J143">
-        <v>250.474884936279</v>
+        <v>4841511.620111225</v>
       </c>
       <c r="K143">
-        <v>1294.376980473017</v>
+        <v>3985983.988803298</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5444,7 +5441,7 @@
         <v>52</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
@@ -5456,22 +5453,22 @@
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>63.91818190794021</v>
+        <v>1116406.338815189</v>
       </c>
       <c r="G144">
-        <v>479.6874920436011</v>
+        <v>4841606.501355438</v>
       </c>
       <c r="H144">
-        <v>1278.407987346658</v>
+        <v>3986221.837278943</v>
       </c>
       <c r="I144">
-        <v>201.9374211276109</v>
+        <v>1116544.290615209</v>
       </c>
       <c r="J144">
-        <v>209.4714189126637</v>
+        <v>4841462.968611912</v>
       </c>
       <c r="K144">
-        <v>1113.411815999695</v>
+        <v>3985757.581996374</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5479,7 +5476,7 @@
         <v>52</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
@@ -5491,22 +5488,22 @@
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>62.84444909834667</v>
+        <v>1116405.571278957</v>
       </c>
       <c r="G145">
-        <v>500.5942850194758</v>
+        <v>4841623.014185106</v>
       </c>
       <c r="H145">
-        <v>1285.41391247184</v>
+        <v>3986231.986908577</v>
       </c>
       <c r="I145">
-        <v>279.7690737015134</v>
+        <v>1116615.382580991</v>
       </c>
       <c r="J145">
-        <v>168.4679528890482</v>
+        <v>4841414.317112597</v>
       </c>
       <c r="K145">
-        <v>920.3384646421819</v>
+        <v>3985516.026550551</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5514,7 +5511,7 @@
         <v>52</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
@@ -5526,22 +5523,22 @@
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>61.82305307227055</v>
+        <v>1116404.841154619</v>
       </c>
       <c r="G146">
-        <v>521.5010779953504</v>
+        <v>4841639.527014775</v>
       </c>
       <c r="H146">
-        <v>1292.190548702069</v>
+        <v>3986241.804362614</v>
       </c>
       <c r="I146">
-        <v>359.5172591162416</v>
+        <v>1116688.225121027</v>
       </c>
       <c r="J146">
-        <v>127.4644868654327</v>
+        <v>4841365.665613282</v>
       </c>
       <c r="K146">
-        <v>715.1569264004801</v>
+        <v>3985259.322465828</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5549,7 +5546,7 @@
         <v>52</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
         <v>15</v>
@@ -5561,22 +5558,22 @@
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>60.84987707205786</v>
+        <v>1116404.145499393</v>
       </c>
       <c r="G147">
-        <v>542.4078709712252</v>
+        <v>4841656.039844443</v>
       </c>
       <c r="H147">
-        <v>1298.752429898056</v>
+        <v>3986251.31069656</v>
       </c>
       <c r="I147">
-        <v>441.2291702298209</v>
+        <v>1116762.861341597</v>
       </c>
       <c r="J147">
-        <v>86.46102084181742</v>
+        <v>4841317.014113969</v>
       </c>
       <c r="K147">
-        <v>497.8672012745893</v>
+        <v>3984987.469742205</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5584,7 +5581,7 @@
         <v>52</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
         <v>15</v>
@@ -5596,22 +5593,22 @@
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>59.92124374144856</v>
+        <v>1116403.481684596</v>
       </c>
       <c r="G148">
-        <v>563.3146639470998</v>
+        <v>4841672.552674112</v>
       </c>
       <c r="H148">
-        <v>1305.112750386535</v>
+        <v>3986260.525025313</v>
       </c>
       <c r="I148">
-        <v>524.9531619809941</v>
+        <v>1116839.335410435</v>
       </c>
       <c r="J148">
-        <v>45.45755481820191</v>
+        <v>4841268.362614655</v>
       </c>
       <c r="K148">
-        <v>268.4692892645084</v>
+        <v>3984700.468379681</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5619,7 +5616,7 @@
         <v>52</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
@@ -5631,22 +5628,22 @@
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>59.03385662557941</v>
+        <v>1116402.847353823</v>
       </c>
       <c r="G149">
-        <v>584.2214569229745</v>
+        <v>4841689.065503781</v>
       </c>
       <c r="H149">
-        <v>1311.28352467895</v>
+        <v>3986269.464754543</v>
       </c>
       <c r="I149">
-        <v>610.7387800043792</v>
+        <v>1116917.692582863</v>
       </c>
       <c r="J149">
-        <v>4.454088794586418</v>
+        <v>4841219.71111534</v>
       </c>
       <c r="K149">
-        <v>26.9631903702383</v>
+        <v>3984398.318378258</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5654,7 +5651,7 @@
         <v>52</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
@@ -5666,22 +5663,22 @@
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>58.18475091442581</v>
+        <v>1116402.24038774</v>
       </c>
       <c r="G150">
-        <v>605.1282498988493</v>
+        <v>4841705.578333449</v>
       </c>
       <c r="H150">
-        <v>1317.275724072609</v>
+        <v>3986278.145778598</v>
       </c>
       <c r="I150">
-        <v>698.6367899502679</v>
+        <v>1116997.979228575</v>
       </c>
       <c r="J150">
-        <v>-36.54937722902888</v>
+        <v>4841171.059616026</v>
       </c>
       <c r="K150">
-        <v>-226.6510954082205</v>
+        <v>3984081.019737935</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5689,7 +5686,7 @@
         <v>52</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
         <v>15</v>
@@ -5701,22 +5698,22 @@
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>57.37125175218574</v>
+        <v>1116401.65887428</v>
       </c>
       <c r="G151">
-        <v>626.0350428747239</v>
+        <v>4841722.091163117</v>
       </c>
       <c r="H151">
-        <v>1323.099394036805</v>
+        <v>3986286.582650559</v>
       </c>
       <c r="I151">
-        <v>788.6992075263884</v>
+        <v>1117080.242859075</v>
       </c>
       <c r="J151">
-        <v>-77.55284325264438</v>
+        <v>4841122.408116712</v>
       </c>
       <c r="K151">
-        <v>-492.3735680708694</v>
+        <v>3983748.572458712</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5724,7 +5721,7 @@
         <v>52</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
@@ -5736,22 +5733,22 @@
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>56.59093877675804</v>
+        <v>1116401.101083295</v>
       </c>
       <c r="G152">
-        <v>646.9418358505986</v>
+        <v>4841738.603992784</v>
       </c>
       <c r="H152">
-        <v>1328.763755538831</v>
+        <v>3986294.788729033</v>
       </c>
       <c r="I152">
-        <v>880.9793292794163</v>
+        <v>1117164.532155795</v>
       </c>
       <c r="J152">
-        <v>-118.5563092762599</v>
+        <v>4841073.756617397</v>
       </c>
       <c r="K152">
-        <v>-770.2042276177083</v>
+        <v>3983400.976540589</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5759,7 +5756,7 @@
         <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
         <v>15</v>
@@ -5771,22 +5768,22 @@
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>55.84161581836412</v>
+        <v>1116400.565444899</v>
       </c>
       <c r="G153">
-        <v>667.8486288264734</v>
+        <v>4841755.116822453</v>
       </c>
       <c r="H153">
-        <v>1334.277292876496</v>
+        <v>3986302.7763054</v>
       </c>
       <c r="I153">
-        <v>975.5317641344573</v>
+        <v>1117250.896998902</v>
       </c>
       <c r="J153">
-        <v>-159.5597752998754</v>
+        <v>4841025.105118084</v>
       </c>
       <c r="K153">
-        <v>-1060.143074048736</v>
+        <v>3983038.231983566</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5794,7 +5791,7 @@
         <v>52</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
@@ -5806,22 +5803,22 @@
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>55.12128489326366</v>
+        <v>1116400.050530873</v>
       </c>
       <c r="G154">
-        <v>688.755421802348</v>
+        <v>4841771.629652122</v>
       </c>
       <c r="H154">
-        <v>1339.647830117637</v>
+        <v>3986310.556714548</v>
       </c>
       <c r="I154">
-        <v>1072.412465711158</v>
+        <v>1117339.388496817</v>
       </c>
       <c r="J154">
-        <v>-200.5632413234905</v>
+        <v>4840976.45361877</v>
       </c>
       <c r="K154">
-        <v>-1362.190107363951</v>
+        <v>3982660.338787643</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5829,7 +5826,7 @@
         <v>52</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
@@ -5841,22 +5838,22 @@
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>54.42812379126707</v>
+        <v>1116399.555038647</v>
       </c>
       <c r="G155">
-        <v>709.6622147782227</v>
+        <v>4841788.14248179</v>
       </c>
       <c r="H155">
-        <v>1344.882597875256</v>
+        <v>3986318.140431618</v>
       </c>
       <c r="I155">
-        <v>1171.678765435575</v>
+        <v>1117430.059016456</v>
       </c>
       <c r="J155">
-        <v>-241.566707347106</v>
+        <v>4840927.802119455</v>
       </c>
       <c r="K155">
-        <v>-1676.345327563358</v>
+        <v>3982267.29695282</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5864,7 +5861,7 @@
         <v>52</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
         <v>15</v>
@@ -5876,22 +5873,22 @@
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>53.76046668460846</v>
+        <v>1116399.077777437</v>
       </c>
       <c r="G156">
-        <v>730.5690077540975</v>
+        <v>4841804.655311459</v>
       </c>
       <c r="H156">
-        <v>1349.988291848438</v>
+        <v>3986325.537156809</v>
       </c>
       <c r="I156">
-        <v>1273.389406467384</v>
+        <v>1117522.962214227</v>
       </c>
       <c r="J156">
-        <v>-282.5701733707215</v>
+        <v>4840879.150620141</v>
       </c>
       <c r="K156">
-        <v>-2002.608734646954</v>
+        <v>3981859.106479097</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5899,7 +5896,7 @@
         <v>52</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
@@ -5911,22 +5908,22 @@
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>53.1167872884172</v>
+        <v>1116398.61765621</v>
       </c>
       <c r="G157">
-        <v>751.4758007299721</v>
+        <v>4841821.168141128</v>
       </c>
       <c r="H157">
-        <v>1354.971124318265</v>
+        <v>3986332.75588998</v>
       </c>
       <c r="I157">
-        <v>1377.604578462527</v>
+        <v>1117618.153067773</v>
       </c>
       <c r="J157">
-        <v>-323.573639394337</v>
+        <v>4840830.499120827</v>
       </c>
       <c r="K157">
-        <v>-2340.98032861474</v>
+        <v>3981435.767366474</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5934,7 +5931,7 @@
         <v>52</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
         <v>15</v>
@@ -5946,22 +5943,22 @@
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>52.49568418532257</v>
+        <v>1116398.17367319</v>
       </c>
       <c r="G158">
-        <v>772.3825937058468</v>
+        <v>4841837.680970795</v>
       </c>
       <c r="H158">
-        <v>1359.836869592219</v>
+        <v>3986339.804996493</v>
       </c>
       <c r="I158">
-        <v>1484.385953191851</v>
+        <v>1117715.687908514</v>
       </c>
       <c r="J158">
-        <v>-364.5771054179525</v>
+        <v>4840781.847621513</v>
       </c>
       <c r="K158">
-        <v>-2691.460109466714</v>
+        <v>3980997.279614951</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5969,7 +5966,7 @@
         <v>52</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>15</v>
@@ -5981,22 +5978,22 @@
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>51.89586799305098</v>
+        <v>1116397.744906689</v>
       </c>
       <c r="G159">
-        <v>793.2893866817216</v>
+        <v>4841854.193800464</v>
       </c>
       <c r="H159">
-        <v>1364.590904230895</v>
+        <v>3986346.692265481</v>
       </c>
       <c r="I159">
-        <v>1593.796721036819</v>
+        <v>1117815.624454978</v>
       </c>
       <c r="J159">
-        <v>-405.5805714415676</v>
+        <v>4840733.196122199</v>
       </c>
       <c r="K159">
-        <v>-3054.048077202876</v>
+        <v>3980543.643224529</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6004,7 +6001,7 @@
         <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
         <v>15</v>
@@ -6016,1877 +6013,22 @@
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>51.31615010762981</v>
+        <v>1116397.330507057</v>
       </c>
       <c r="G160">
-        <v>814.1961796575962</v>
+        <v>4841870.706630133</v>
       </c>
       <c r="H160">
-        <v>1369.238242759799</v>
+        <v>3986353.424961594</v>
       </c>
       <c r="I160">
-        <v>1705.901628383911</v>
+        <v>1117918.021846959</v>
       </c>
       <c r="J160">
-        <v>-446.5840374651831</v>
+        <v>4840684.544622884</v>
       </c>
       <c r="K160">
-        <v>-3428.74423182323</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>52</v>
-      </c>
-      <c r="B161" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G161">
-        <v>-113.1090690330676</v>
-      </c>
-      <c r="H161">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I161">
-        <v>-2232.104022802109</v>
-      </c>
-      <c r="J161">
-        <v>1585.218540129719</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>52</v>
-      </c>
-      <c r="B162" t="s">
-        <v>12</v>
-      </c>
-      <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G162">
-        <v>-113.1090690330676</v>
-      </c>
-      <c r="H162">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I162">
-        <v>-2188.03634588532</v>
-      </c>
-      <c r="J162">
-        <v>1546.656840291047</v>
-      </c>
-      <c r="K162">
-        <v>440.4667649432315</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>52</v>
-      </c>
-      <c r="B163" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G163">
-        <v>-113.1090690330676</v>
-      </c>
-      <c r="H163">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I163">
-        <v>-2142.883542965974</v>
-      </c>
-      <c r="J163">
-        <v>1508.095140452374</v>
-      </c>
-      <c r="K163">
-        <v>858.9698379592257</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>52</v>
-      </c>
-      <c r="B164" t="s">
-        <v>12</v>
-      </c>
-      <c r="C164" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" t="s">
-        <v>18</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G164">
-        <v>-113.1090690330676</v>
-      </c>
-      <c r="H164">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I164">
-        <v>-2096.618893814556</v>
-      </c>
-      <c r="J164">
-        <v>1469.533440613701</v>
-      </c>
-      <c r="K164">
-        <v>1255.509219047986</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>52</v>
-      </c>
-      <c r="B165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" t="s">
-        <v>18</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G165">
-        <v>-113.1090690330676</v>
-      </c>
-      <c r="H165">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I165">
-        <v>-2049.215020240481</v>
-      </c>
-      <c r="J165">
-        <v>1430.971740775029</v>
-      </c>
-      <c r="K165">
-        <v>1630.084908209509</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>52</v>
-      </c>
-      <c r="B166" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G166">
-        <v>-113.1090690330676</v>
-      </c>
-      <c r="H166">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I166">
-        <v>-2000.643869890408</v>
-      </c>
-      <c r="J166">
-        <v>1392.410040936356</v>
-      </c>
-      <c r="K166">
-        <v>1982.696905443799</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>52</v>
-      </c>
-      <c r="B167" t="s">
-        <v>12</v>
-      </c>
-      <c r="C167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G167">
-        <v>-113.1090690330676</v>
-      </c>
-      <c r="H167">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I167">
-        <v>-1950.876699647604</v>
-      </c>
-      <c r="J167">
-        <v>1353.848341097684</v>
-      </c>
-      <c r="K167">
-        <v>2313.345210750852</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>52</v>
-      </c>
-      <c r="B168" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G168">
-        <v>-113.1090690330676</v>
-      </c>
-      <c r="H168">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I168">
-        <v>-1899.884058622527</v>
-      </c>
-      <c r="J168">
-        <v>1315.286641259011</v>
-      </c>
-      <c r="K168">
-        <v>2622.02982413067</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>52</v>
-      </c>
-      <c r="B169" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>208.1338678505131</v>
-      </c>
-      <c r="G169">
-        <v>-94.43157792487612</v>
-      </c>
-      <c r="H169">
-        <v>506.8646222578535</v>
-      </c>
-      <c r="I169">
-        <v>-1847.635770724579</v>
-      </c>
-      <c r="J169">
-        <v>1276.724941420339</v>
-      </c>
-      <c r="K169">
-        <v>2908.750745583252</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>52</v>
-      </c>
-      <c r="B170" t="s">
-        <v>12</v>
-      </c>
-      <c r="C170" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" t="s">
-        <v>18</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>161.5361616119477</v>
-      </c>
-      <c r="G170">
-        <v>-75.75408681668463</v>
-      </c>
-      <c r="H170">
-        <v>624.4538039013412</v>
-      </c>
-      <c r="I170">
-        <v>-1794.100916804686</v>
-      </c>
-      <c r="J170">
-        <v>1238.163241581666</v>
-      </c>
-      <c r="K170">
-        <v>3173.507975108598</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>52</v>
-      </c>
-      <c r="B171" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>134.1623467900744</v>
-      </c>
-      <c r="G171">
-        <v>-57.07659570849315</v>
-      </c>
-      <c r="H171">
-        <v>694.4959342272583</v>
-      </c>
-      <c r="I171">
-        <v>-1739.247816358178</v>
-      </c>
-      <c r="J171">
-        <v>1199.601541742994</v>
-      </c>
-      <c r="K171">
-        <v>3416.30151270671</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>52</v>
-      </c>
-      <c r="B172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>116.881986629845</v>
-      </c>
-      <c r="G172">
-        <v>-38.39910460030166</v>
-      </c>
-      <c r="H172">
-        <v>744.5503108045785</v>
-      </c>
-      <c r="I172">
-        <v>-1683.044008777102</v>
-      </c>
-      <c r="J172">
-        <v>1161.039841904321</v>
-      </c>
-      <c r="K172">
-        <v>3637.131358377586</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>52</v>
-      </c>
-      <c r="B173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>104.830733599201</v>
-      </c>
-      <c r="G173">
-        <v>-19.72161349211017</v>
-      </c>
-      <c r="H173">
-        <v>783.5276270286861</v>
-      </c>
-      <c r="I173">
-        <v>-1625.456234140897</v>
-      </c>
-      <c r="J173">
-        <v>1122.478142065648</v>
-      </c>
-      <c r="K173">
-        <v>3835.997512121226</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>52</v>
-      </c>
-      <c r="B174" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>95.84013794448926</v>
-      </c>
-      <c r="G174">
-        <v>-1.044122383918697</v>
-      </c>
-      <c r="H174">
-        <v>815.4530723724604</v>
-      </c>
-      <c r="I174">
-        <v>-1566.450413534057</v>
-      </c>
-      <c r="J174">
-        <v>1083.916442226976</v>
-      </c>
-      <c r="K174">
-        <v>4012.899973937631</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>52</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-      <c r="C175" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>88.81074764196629</v>
-      </c>
-      <c r="G175">
-        <v>17.63336872427279</v>
-      </c>
-      <c r="H175">
-        <v>842.4915941340784</v>
-      </c>
-      <c r="I175">
-        <v>-1505.991628879133</v>
-      </c>
-      <c r="J175">
-        <v>1045.354742388303</v>
-      </c>
-      <c r="K175">
-        <v>4167.8387438268</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>52</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>83.12345906053447</v>
-      </c>
-      <c r="G176">
-        <v>36.31085983246428</v>
-      </c>
-      <c r="H176">
-        <v>865.9425873135813</v>
-      </c>
-      <c r="I176">
-        <v>-1444.044102273143</v>
-      </c>
-      <c r="J176">
-        <v>1006.793042549631</v>
-      </c>
-      <c r="K176">
-        <v>4300.813821788734</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>52</v>
-      </c>
-      <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" t="s">
-        <v>18</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>78.40098304349799</v>
-      </c>
-      <c r="G177">
-        <v>54.98835094065576</v>
-      </c>
-      <c r="H177">
-        <v>886.6474937285745</v>
-      </c>
-      <c r="I177">
-        <v>-1380.57117481516</v>
-      </c>
-      <c r="J177">
-        <v>968.2313427109581</v>
-      </c>
-      <c r="K177">
-        <v>4411.825207823433</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>52</v>
-      </c>
-      <c r="B178" t="s">
-        <v>12</v>
-      </c>
-      <c r="C178" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>74.39903994123084</v>
-      </c>
-      <c r="G178">
-        <v>73.66584204884727</v>
-      </c>
-      <c r="H178">
-        <v>905.1825513950961</v>
-      </c>
-      <c r="I178">
-        <v>-1315.535284912547</v>
-      </c>
-      <c r="J178">
-        <v>929.6696428722855</v>
-      </c>
-      <c r="K178">
-        <v>4500.872901930896</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>52</v>
-      </c>
-      <c r="B179" t="s">
-        <v>12</v>
-      </c>
-      <c r="C179" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" t="s">
-        <v>18</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>70.95175638966263</v>
-      </c>
-      <c r="G179">
-        <v>92.34333315703874</v>
-      </c>
-      <c r="H179">
-        <v>921.9597223678376</v>
-      </c>
-      <c r="I179">
-        <v>-1248.897946053004</v>
-      </c>
-      <c r="J179">
-        <v>891.1079430336131</v>
-      </c>
-      <c r="K179">
-        <v>4567.956904111123</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>52</v>
-      </c>
-      <c r="B180" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>67.94209972202354</v>
-      </c>
-      <c r="G180">
-        <v>111.0208242652302</v>
-      </c>
-      <c r="H180">
-        <v>937.2837523979991</v>
-      </c>
-      <c r="I180">
-        <v>-1180.619724029272</v>
-      </c>
-      <c r="J180">
-        <v>852.5462431949404</v>
-      </c>
-      <c r="K180">
-        <v>4613.077214364114</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>52</v>
-      </c>
-      <c r="B181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" t="s">
-        <v>18</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>65.28485734102</v>
-      </c>
-      <c r="G181">
-        <v>129.6983153734217</v>
-      </c>
-      <c r="H181">
-        <v>951.3864241217119</v>
-      </c>
-      <c r="I181">
-        <v>-1110.660213603018</v>
-      </c>
-      <c r="J181">
-        <v>813.984543356268</v>
-      </c>
-      <c r="K181">
-        <v>4636.233832689871</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>52</v>
-      </c>
-      <c r="B182" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>62.9163325191425</v>
-      </c>
-      <c r="G182">
-        <v>148.3758064816132</v>
-      </c>
-      <c r="H182">
-        <v>964.4481373663705</v>
-      </c>
-      <c r="I182">
-        <v>-1038.978014594087</v>
-      </c>
-      <c r="J182">
-        <v>775.4228435175953</v>
-      </c>
-      <c r="K182">
-        <v>4637.426759088391</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>52</v>
-      </c>
-      <c r="B183" t="s">
-        <v>12</v>
-      </c>
-      <c r="C183" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" t="s">
-        <v>18</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>60.78783890793059</v>
-      </c>
-      <c r="G183">
-        <v>167.0532975898047</v>
-      </c>
-      <c r="H183">
-        <v>976.6120573742498</v>
-      </c>
-      <c r="I183">
-        <v>-965.5307073809745</v>
-      </c>
-      <c r="J183">
-        <v>736.8611436789226</v>
-      </c>
-      <c r="K183">
-        <v>4616.655993559677</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>52</v>
-      </c>
-      <c r="B184" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184" t="s">
-        <v>18</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>58.86144483933786</v>
-      </c>
-      <c r="G184">
-        <v>185.7307886979962</v>
-      </c>
-      <c r="H184">
-        <v>987.9937054583916</v>
-      </c>
-      <c r="I184">
-        <v>-890.2748277980226</v>
-      </c>
-      <c r="J184">
-        <v>698.2994438402502</v>
-      </c>
-      <c r="K184">
-        <v>4573.921536103727</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>52</v>
-      </c>
-      <c r="B185" t="s">
-        <v>12</v>
-      </c>
-      <c r="C185" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" t="s">
-        <v>18</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>57.10710334070866</v>
-      </c>
-      <c r="G185">
-        <v>204.4082798061877</v>
-      </c>
-      <c r="H185">
-        <v>998.6876477124506</v>
-      </c>
-      <c r="I185">
-        <v>-813.1658414144804</v>
-      </c>
-      <c r="J185">
-        <v>659.7377440015775</v>
-      </c>
-      <c r="K185">
-        <v>4509.223386720541</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>52</v>
-      </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" t="s">
-        <v>16</v>
-      </c>
-      <c r="D186" t="s">
-        <v>18</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>55.50066494618019</v>
-      </c>
-      <c r="G186">
-        <v>223.0857709143791</v>
-      </c>
-      <c r="H186">
-        <v>1008.772275601869</v>
-      </c>
-      <c r="I186">
-        <v>-734.1581171802105</v>
-      </c>
-      <c r="J186">
-        <v>621.176044162905</v>
-      </c>
-      <c r="K186">
-        <v>4422.56154541012</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>52</v>
-      </c>
-      <c r="B187" t="s">
-        <v>12</v>
-      </c>
-      <c r="C187" t="s">
-        <v>16</v>
-      </c>
-      <c r="D187" t="s">
-        <v>18</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>54.0224696627848</v>
-      </c>
-      <c r="G187">
-        <v>241.7632620225706</v>
-      </c>
-      <c r="H187">
-        <v>1018.313296533315</v>
-      </c>
-      <c r="I187">
-        <v>-653.2049004224456</v>
-      </c>
-      <c r="J187">
-        <v>582.6143443242325</v>
-      </c>
-      <c r="K187">
-        <v>4313.936012172464</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>52</v>
-      </c>
-      <c r="B188" t="s">
-        <v>12</v>
-      </c>
-      <c r="C188" t="s">
-        <v>16</v>
-      </c>
-      <c r="D188" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>52.65632880280629</v>
-      </c>
-      <c r="G188">
-        <v>260.4407531307621</v>
-      </c>
-      <c r="H188">
-        <v>1027.366330826384</v>
-      </c>
-      <c r="I188">
-        <v>-570.2582851776134</v>
-      </c>
-      <c r="J188">
-        <v>544.0526444855599</v>
-      </c>
-      <c r="K188">
-        <v>4183.346787007571</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>52</v>
-      </c>
-      <c r="B189" t="s">
-        <v>12</v>
-      </c>
-      <c r="C189" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>51.3887753093254</v>
-      </c>
-      <c r="G189">
-        <v>279.1182442389536</v>
-      </c>
-      <c r="H189">
-        <v>1035.978876284886</v>
-      </c>
-      <c r="I189">
-        <v>-485.2691858418644</v>
-      </c>
-      <c r="J189">
-        <v>505.4909446468872</v>
-      </c>
-      <c r="K189">
-        <v>4030.793869915443</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>52</v>
-      </c>
-      <c r="B190" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" t="s">
-        <v>16</v>
-      </c>
-      <c r="D190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>50.20850278007766</v>
-      </c>
-      <c r="G190">
-        <v>297.7957353471451</v>
-      </c>
-      <c r="H190">
-        <v>1044.191816615388</v>
-      </c>
-      <c r="I190">
-        <v>-398.1873081235104</v>
-      </c>
-      <c r="J190">
-        <v>466.9292448082148</v>
-      </c>
-      <c r="K190">
-        <v>3856.277260896081</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>52</v>
-      </c>
-      <c r="B191" t="s">
-        <v>12</v>
-      </c>
-      <c r="C191" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" t="s">
-        <v>18</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>49.10593954545048</v>
-      </c>
-      <c r="G191">
-        <v>316.4732264553366</v>
-      </c>
-      <c r="H191">
-        <v>1052.040595169291</v>
-      </c>
-      <c r="I191">
-        <v>-308.9611192802006</v>
-      </c>
-      <c r="J191">
-        <v>428.3675449695422</v>
-      </c>
-      <c r="K191">
-        <v>3659.796959949482</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>52</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" t="s">
-        <v>18</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>48.07292100621088</v>
-      </c>
-      <c r="G192">
-        <v>335.150717563528</v>
-      </c>
-      <c r="H192">
-        <v>1059.556139341723</v>
-      </c>
-      <c r="I192">
-        <v>-217.5378176232123</v>
-      </c>
-      <c r="J192">
-        <v>389.8058451308697</v>
-      </c>
-      <c r="K192">
-        <v>3441.352967075648</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>52</v>
-      </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
-        <v>16</v>
-      </c>
-      <c r="D193" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>47.10243453218877</v>
-      </c>
-      <c r="G193">
-        <v>353.8282086717196</v>
-      </c>
-      <c r="H193">
-        <v>1066.765596608014</v>
-      </c>
-      <c r="I193">
-        <v>-123.8633012708158</v>
-      </c>
-      <c r="J193">
-        <v>351.2441452921971</v>
-      </c>
-      <c r="K193">
-        <v>3200.945282274579</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>52</v>
-      </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" t="s">
-        <v>18</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>46.18841867499341</v>
-      </c>
-      <c r="G194">
-        <v>372.5056997799111</v>
-      </c>
-      <c r="H194">
-        <v>1073.692926458391</v>
-      </c>
-      <c r="I194">
-        <v>-27.88213613221678</v>
-      </c>
-      <c r="J194">
-        <v>312.6824454535245</v>
-      </c>
-      <c r="K194">
-        <v>2938.573905546273</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>52</v>
-      </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
-        <v>16</v>
-      </c>
-      <c r="D195" t="s">
-        <v>18</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>45.32560354294806</v>
-      </c>
-      <c r="G195">
-        <v>391.1831908881026</v>
-      </c>
-      <c r="H195">
-        <v>1080.359380813877</v>
-      </c>
-      <c r="I195">
-        <v>70.46247689686771</v>
-      </c>
-      <c r="J195">
-        <v>274.120745614852</v>
-      </c>
-      <c r="K195">
-        <v>2654.238836890733</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>52</v>
-      </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>16</v>
-      </c>
-      <c r="D196" t="s">
-        <v>18</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>44.50938272764401</v>
-      </c>
-      <c r="G196">
-        <v>409.860681996294</v>
-      </c>
-      <c r="H196">
-        <v>1086.783897222395</v>
-      </c>
-      <c r="I196">
-        <v>171.2287355464082</v>
-      </c>
-      <c r="J196">
-        <v>235.5590457761793</v>
-      </c>
-      <c r="K196">
-        <v>2347.940076307957</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>52</v>
-      </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
-        <v>16</v>
-      </c>
-      <c r="D197" t="s">
-        <v>18</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>43.73570966992851</v>
-      </c>
-      <c r="G197">
-        <v>428.5381731044855</v>
-      </c>
-      <c r="H197">
-        <v>1092.983423172899</v>
-      </c>
-      <c r="I197">
-        <v>274.4762706119366</v>
-      </c>
-      <c r="J197">
-        <v>196.9973459375069</v>
-      </c>
-      <c r="K197">
-        <v>2019.677623797947</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>52</v>
-      </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
-        <v>16</v>
-      </c>
-      <c r="D198" t="s">
-        <v>18</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>43.0010131403699</v>
-      </c>
-      <c r="G198">
-        <v>447.215664212677</v>
-      </c>
-      <c r="H198">
-        <v>1098.973185519196</v>
-      </c>
-      <c r="I198">
-        <v>380.2661812424618</v>
-      </c>
-      <c r="J198">
-        <v>158.4356460988342</v>
-      </c>
-      <c r="K198">
-        <v>1669.451479360699</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>52</v>
-      </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" t="s">
-        <v>16</v>
-      </c>
-      <c r="D199" t="s">
-        <v>18</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>42.30212780413141</v>
-      </c>
-      <c r="G199">
-        <v>465.8931553208685</v>
-      </c>
-      <c r="H199">
-        <v>1104.766915797655</v>
-      </c>
-      <c r="I199">
-        <v>488.6610710973316</v>
-      </c>
-      <c r="J199">
-        <v>119.8739462601616</v>
-      </c>
-      <c r="K199">
-        <v>1297.261642996216</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>52</v>
-      </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
-        <v>16</v>
-      </c>
-      <c r="D200" t="s">
-        <v>18</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>41.6362367895161</v>
-      </c>
-      <c r="G200">
-        <v>484.57064642906</v>
-      </c>
-      <c r="H200">
-        <v>1110.377039829287</v>
-      </c>
-      <c r="I200">
-        <v>599.7250853934057</v>
-      </c>
-      <c r="J200">
-        <v>81.31224642148916</v>
-      </c>
-      <c r="K200">
-        <v>903.1081147044986</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>52</v>
-      </c>
-      <c r="B201" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" t="s">
-        <v>16</v>
-      </c>
-      <c r="D201" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>41.00082388312518</v>
-      </c>
-      <c r="G201">
-        <v>503.2481375372514</v>
-      </c>
-      <c r="H201">
-        <v>1115.814838191609</v>
-      </c>
-      <c r="I201">
-        <v>713.5239488645034</v>
-      </c>
-      <c r="J201">
-        <v>42.75054658281653</v>
-      </c>
-      <c r="K201">
-        <v>486.9908944855445</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>52</v>
-      </c>
-      <c r="B202" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" t="s">
-        <v>16</v>
-      </c>
-      <c r="D202" t="s">
-        <v>18</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>40.39363350151536</v>
-      </c>
-      <c r="G202">
-        <v>521.925628645443</v>
-      </c>
-      <c r="H202">
-        <v>1121.090582771202</v>
-      </c>
-      <c r="I202">
-        <v>830.1250046555413</v>
-      </c>
-      <c r="J202">
-        <v>4.188846744143897</v>
-      </c>
-      <c r="K202">
-        <v>48.90998233935528</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>52</v>
-      </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" t="s">
-        <v>16</v>
-      </c>
-      <c r="D203" t="s">
-        <v>18</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>39.81263698763487</v>
-      </c>
-      <c r="G203">
-        <v>540.6031197536345</v>
-      </c>
-      <c r="H203">
-        <v>1126.213653551766</v>
-      </c>
-      <c r="I203">
-        <v>949.5972541744281</v>
-      </c>
-      <c r="J203">
-        <v>-34.37285309452856</v>
-      </c>
-      <c r="K203">
-        <v>-411.1346217340682</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>52</v>
-      </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" t="s">
-        <v>18</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>39.25600408421929</v>
-      </c>
-      <c r="G204">
-        <v>559.2806108618258</v>
-      </c>
-      <c r="H204">
-        <v>1131.19263897418</v>
-      </c>
-      <c r="I204">
-        <v>1072.011397925264</v>
-      </c>
-      <c r="J204">
-        <v>-72.93455293320119</v>
-      </c>
-      <c r="K204">
-        <v>-893.1429177347284</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>52</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="s">
-        <v>16</v>
-      </c>
-      <c r="D205" t="s">
-        <v>18</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>38.72207867009946</v>
-      </c>
-      <c r="G205">
-        <v>577.9581019700174</v>
-      </c>
-      <c r="H205">
-        <v>1136.035422565843</v>
-      </c>
-      <c r="I205">
-        <v>1197.439877347018</v>
-      </c>
-      <c r="J205">
-        <v>-111.4962527718738</v>
-      </c>
-      <c r="K205">
-        <v>-1397.114905662625</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>52</v>
-      </c>
-      <c r="B206" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" t="s">
-        <v>16</v>
-      </c>
-      <c r="D206" t="s">
-        <v>18</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>38.20935802662858</v>
-      </c>
-      <c r="G206">
-        <v>596.6355930782089</v>
-      </c>
-      <c r="H206">
-        <v>1140.749258033673</v>
-      </c>
-      <c r="I206">
-        <v>1325.956917682447</v>
-      </c>
-      <c r="J206">
-        <v>-150.0579526105465</v>
-      </c>
-      <c r="K206">
-        <v>-1923.050585517757</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>52</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>37.7164750430068</v>
-      </c>
-      <c r="G207">
-        <v>615.3130841864004</v>
-      </c>
-      <c r="H207">
-        <v>1145.340834616579</v>
-      </c>
-      <c r="I207">
-        <v>1457.638571902626</v>
-      </c>
-      <c r="J207">
-        <v>-188.6196524492187</v>
-      </c>
-      <c r="K207">
-        <v>-2470.94995730012</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>52</v>
-      </c>
-      <c r="B208" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208" t="s">
-        <v>18</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>37.24218288064408</v>
-      </c>
-      <c r="G208">
-        <v>633.9905752945918</v>
-      </c>
-      <c r="H208">
-        <v>1149.816334175301</v>
-      </c>
-      <c r="I208">
-        <v>1592.562765713078</v>
-      </c>
-      <c r="J208">
-        <v>-227.1813522878914</v>
-      </c>
-      <c r="K208">
-        <v>-3040.813021009722</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>52</v>
-      </c>
-      <c r="B209" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" t="s">
-        <v>16</v>
-      </c>
-      <c r="D209" t="s">
-        <v>18</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>36.78534170487438</v>
-      </c>
-      <c r="G209">
-        <v>652.6680664027833</v>
-      </c>
-      <c r="H209">
-        <v>1154.181481242368</v>
-      </c>
-      <c r="I209">
-        <v>1730.809343668129</v>
-      </c>
-      <c r="J209">
-        <v>-265.743052126564</v>
-      </c>
-      <c r="K209">
-        <v>-3632.639776646561</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>52</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210" t="s">
-        <v>18</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>36.34490716258902</v>
-      </c>
-      <c r="G210">
-        <v>671.3455575109748</v>
-      </c>
-      <c r="H210">
-        <v>1158.441587048866</v>
-      </c>
-      <c r="I210">
-        <v>1872.460116420804</v>
-      </c>
-      <c r="J210">
-        <v>-304.3047519652366</v>
-      </c>
-      <c r="K210">
-        <v>-4246.430224210634</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>52</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>35.91992034066779</v>
-      </c>
-      <c r="G211">
-        <v>690.0230486191664</v>
-      </c>
-      <c r="H211">
-        <v>1162.601588377434</v>
-      </c>
-      <c r="I211">
-        <v>2017.598909136194</v>
-      </c>
-      <c r="J211">
-        <v>-342.8664518039093</v>
-      </c>
-      <c r="K211">
-        <v>-4882.184363701943</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>52</v>
-      </c>
-      <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" t="s">
-        <v>18</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>35.5094989854688</v>
-      </c>
-      <c r="G212">
-        <v>708.7005397273578</v>
-      </c>
-      <c r="H212">
-        <v>1166.666081954361</v>
-      </c>
-      <c r="I212">
-        <v>2166.311611096956</v>
-      </c>
-      <c r="J212">
-        <v>-381.4281516425816</v>
-      </c>
-      <c r="K212">
-        <v>-5539.902195120483</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>52</v>
-      </c>
-      <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" t="s">
-        <v>18</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>35.11282980041967</v>
-      </c>
-      <c r="G213">
-        <v>727.3780308355492</v>
-      </c>
-      <c r="H213">
-        <v>1170.639354981626</v>
-      </c>
-      <c r="I213">
-        <v>2318.686226530327</v>
-      </c>
-      <c r="J213">
-        <v>-419.9898514812542</v>
-      </c>
-      <c r="K213">
-        <v>-6219.583718466263</v>
+        <v>3980074.858195206</v>
       </c>
     </row>
   </sheetData>
